--- a/Docs/I-LD-4880.00-9311-000-CZ1-001_R0.xlsx
+++ b/Docs/I-LD-4880.00-9311-000-CZ1-001_R0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GED_PROFISSIONAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.laranjo\Documents\GED_PROFISSIONAL\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F72D74-A59B-4F0E-B037-BE6A0ABFC768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99464396-6DB7-433E-851F-071C9FDCFD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2610" windowWidth="21840" windowHeight="13020" xr2:uid="{01B28657-6C71-492A-81A2-30F08031C7A1}"/>
   </bookViews>
@@ -3783,9 +3783,6 @@
     <t>Tipo de Doc</t>
   </si>
   <si>
-    <t>Status LDP</t>
-  </si>
-  <si>
     <t>Status Emissão</t>
   </si>
   <si>
@@ -3862,6 +3859,9 @@
   </si>
   <si>
     <t>Documentos Não Recebidos</t>
+  </si>
+  <si>
+    <t>Status Documento</t>
   </si>
 </sst>
 </file>
@@ -4854,13 +4854,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C662C1-44E7-4D45-92FE-121B8423D47A}">
-  <sheetPr codeName="Planilha4">
+  <sheetPr codeName="Planilha4" filterMode="1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:XET577"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C586" sqref="C586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4901,10 +4901,10 @@
         <v>1206</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1247</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1248</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1207</v>
@@ -4916,7 +4916,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4948,7 +4948,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -4980,7 +4980,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="22"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -5012,7 +5012,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -5044,7 +5044,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="22"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -5076,7 +5076,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -5108,7 +5108,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="22"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -5140,7 +5140,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="22"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
@@ -5172,7 +5172,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="22"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -5204,7 +5204,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="22"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -5236,7 +5236,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="22"/>
     </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
@@ -5268,7 +5268,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="22"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -5300,7 +5300,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="22"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
@@ -5332,7 +5332,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="22"/>
     </row>
-    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -5364,7 +5364,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -5396,7 +5396,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="22"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
@@ -5428,7 +5428,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="22"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
@@ -5460,7 +5460,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="22"/>
     </row>
-    <row r="19" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
@@ -5492,7 +5492,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="22"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
@@ -5524,7 +5524,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
@@ -5556,7 +5556,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
@@ -5588,7 +5588,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
@@ -5620,7 +5620,7 @@
       <c r="K23" s="6"/>
       <c r="L23" s="22"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
@@ -5652,7 +5652,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="22"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>1</v>
       </c>
@@ -5684,7 +5684,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>1</v>
       </c>
@@ -5716,7 +5716,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="22"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>1</v>
       </c>
@@ -5748,7 +5748,7 @@
       <c r="K27" s="6"/>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>1</v>
       </c>
@@ -5780,7 +5780,7 @@
       <c r="K28" s="6"/>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>1</v>
       </c>
@@ -5812,7 +5812,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>1</v>
       </c>
@@ -5844,7 +5844,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>1</v>
       </c>
@@ -5876,7 +5876,7 @@
       <c r="K31" s="6"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>1</v>
       </c>
@@ -5908,7 +5908,7 @@
       <c r="K32" s="6"/>
       <c r="L32" s="22"/>
     </row>
-    <row r="33" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>1</v>
       </c>
@@ -5940,7 +5940,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="22"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>1</v>
       </c>
@@ -5972,7 +5972,7 @@
       <c r="K34" s="6"/>
       <c r="L34" s="22"/>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>1</v>
       </c>
@@ -6004,7 +6004,7 @@
       <c r="K35" s="6"/>
       <c r="L35" s="22"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>1</v>
       </c>
@@ -6036,7 +6036,7 @@
       <c r="K36" s="6"/>
       <c r="L36" s="22"/>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>1</v>
       </c>
@@ -6068,7 +6068,7 @@
       <c r="K37" s="6"/>
       <c r="L37" s="22"/>
     </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
@@ -6100,7 +6100,7 @@
       <c r="K38" s="6"/>
       <c r="L38" s="22"/>
     </row>
-    <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>1</v>
       </c>
@@ -6132,7 +6132,7 @@
       <c r="K39" s="6"/>
       <c r="L39" s="22"/>
     </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>1</v>
       </c>
@@ -6164,7 +6164,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="22"/>
     </row>
-    <row r="41" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
@@ -6196,7 +6196,7 @@
       <c r="K41" s="6"/>
       <c r="L41" s="22"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>1</v>
       </c>
@@ -6228,7 +6228,7 @@
       <c r="K42" s="6"/>
       <c r="L42" s="22"/>
     </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>1</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>1</v>
       </c>
@@ -6298,7 +6298,7 @@
       <c r="K44" s="13"/>
       <c r="L44" s="22"/>
     </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>1</v>
       </c>
@@ -6330,7 +6330,7 @@
       <c r="K45" s="13"/>
       <c r="L45" s="22"/>
     </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>1</v>
       </c>
@@ -6362,7 +6362,7 @@
       <c r="K46" s="13"/>
       <c r="L46" s="22"/>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>1</v>
       </c>
@@ -6394,7 +6394,7 @@
       <c r="K47" s="13"/>
       <c r="L47" s="22"/>
     </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>1</v>
       </c>
@@ -6426,7 +6426,7 @@
       <c r="K48" s="13"/>
       <c r="L48" s="22"/>
     </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>1</v>
       </c>
@@ -6458,7 +6458,7 @@
       <c r="K49" s="13"/>
       <c r="L49" s="22"/>
     </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>1</v>
       </c>
@@ -6490,7 +6490,7 @@
       <c r="K50" s="13"/>
       <c r="L50" s="22"/>
     </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>1</v>
       </c>
@@ -6522,7 +6522,7 @@
       <c r="K51" s="13"/>
       <c r="L51" s="22"/>
     </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>1</v>
       </c>
@@ -6554,7 +6554,7 @@
       <c r="K52" s="13"/>
       <c r="L52" s="22"/>
     </row>
-    <row r="53" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>1</v>
       </c>
@@ -6586,7 +6586,7 @@
       <c r="K53" s="13"/>
       <c r="L53" s="22"/>
     </row>
-    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>1</v>
       </c>
@@ -6618,7 +6618,7 @@
       <c r="K54" s="13"/>
       <c r="L54" s="22"/>
     </row>
-    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>1</v>
       </c>
@@ -6650,7 +6650,7 @@
       <c r="K55" s="13"/>
       <c r="L55" s="22"/>
     </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>1</v>
       </c>
@@ -6682,7 +6682,7 @@
       <c r="K56" s="13"/>
       <c r="L56" s="22"/>
     </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>1</v>
       </c>
@@ -6714,7 +6714,7 @@
       <c r="K57" s="13"/>
       <c r="L57" s="22"/>
     </row>
-    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>1</v>
       </c>
@@ -6746,7 +6746,7 @@
       <c r="K58" s="13"/>
       <c r="L58" s="22"/>
     </row>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>1</v>
       </c>
@@ -6778,7 +6778,7 @@
       <c r="K59" s="13"/>
       <c r="L59" s="22"/>
     </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>1</v>
       </c>
@@ -6810,7 +6810,7 @@
       <c r="K60" s="13"/>
       <c r="L60" s="22"/>
     </row>
-    <row r="61" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>1</v>
       </c>
@@ -6842,7 +6842,7 @@
       <c r="K61" s="13"/>
       <c r="L61" s="22"/>
     </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>1</v>
       </c>
@@ -6874,7 +6874,7 @@
       <c r="K62" s="13"/>
       <c r="L62" s="22"/>
     </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>1</v>
       </c>
@@ -6906,7 +6906,7 @@
       <c r="K63" s="13"/>
       <c r="L63" s="22"/>
     </row>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>1</v>
       </c>
@@ -6938,7 +6938,7 @@
       <c r="K64" s="13"/>
       <c r="L64" s="22"/>
     </row>
-    <row r="65" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>1</v>
       </c>
@@ -6970,7 +6970,7 @@
       <c r="K65" s="13"/>
       <c r="L65" s="22"/>
     </row>
-    <row r="66" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>1</v>
       </c>
@@ -7002,7 +7002,7 @@
       <c r="K66" s="13"/>
       <c r="L66" s="22"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>1</v>
       </c>
@@ -7034,7 +7034,7 @@
       <c r="K67" s="13"/>
       <c r="L67" s="22"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>1</v>
       </c>
@@ -7066,7 +7066,7 @@
       <c r="K68" s="13"/>
       <c r="L68" s="22"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>1</v>
       </c>
@@ -7098,7 +7098,7 @@
       <c r="K69" s="13"/>
       <c r="L69" s="22"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>1</v>
       </c>
@@ -7130,7 +7130,7 @@
       <c r="K70" s="13"/>
       <c r="L70" s="22"/>
     </row>
-    <row r="71" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>1</v>
       </c>
@@ -7162,7 +7162,7 @@
       <c r="K71" s="13"/>
       <c r="L71" s="22"/>
     </row>
-    <row r="72" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>1</v>
       </c>
@@ -7194,7 +7194,7 @@
       <c r="K72" s="13"/>
       <c r="L72" s="22"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>1</v>
       </c>
@@ -7226,7 +7226,7 @@
       <c r="K73" s="13"/>
       <c r="L73" s="22"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>1</v>
       </c>
@@ -7258,7 +7258,7 @@
       <c r="K74" s="13"/>
       <c r="L74" s="22"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>1</v>
       </c>
@@ -7290,7 +7290,7 @@
       <c r="K75" s="13"/>
       <c r="L75" s="22"/>
     </row>
-    <row r="76" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>1</v>
       </c>
@@ -7322,7 +7322,7 @@
       <c r="K76" s="13"/>
       <c r="L76" s="22"/>
     </row>
-    <row r="77" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>1</v>
       </c>
@@ -7354,7 +7354,7 @@
       <c r="K77" s="13"/>
       <c r="L77" s="22"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>1</v>
       </c>
@@ -7386,7 +7386,7 @@
       <c r="K78" s="13"/>
       <c r="L78" s="22"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>1</v>
       </c>
@@ -7418,7 +7418,7 @@
       <c r="K79" s="13"/>
       <c r="L79" s="22"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>1</v>
       </c>
@@ -7450,7 +7450,7 @@
       <c r="K80" s="13"/>
       <c r="L80" s="22"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>1</v>
       </c>
@@ -7482,7 +7482,7 @@
       <c r="K81" s="13"/>
       <c r="L81" s="22"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>1</v>
       </c>
@@ -7514,7 +7514,7 @@
       <c r="K82" s="13"/>
       <c r="L82" s="22"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>1</v>
       </c>
@@ -7546,7 +7546,7 @@
       <c r="K83" s="13"/>
       <c r="L83" s="22"/>
     </row>
-    <row r="84" spans="1:12" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" s="9" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>1</v>
       </c>
@@ -7578,7 +7578,7 @@
       <c r="K84" s="13"/>
       <c r="L84" s="22"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>1</v>
       </c>
@@ -7610,7 +7610,7 @@
       <c r="K85" s="13"/>
       <c r="L85" s="22"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>1</v>
       </c>
@@ -7642,7 +7642,7 @@
       <c r="K86" s="13"/>
       <c r="L86" s="22"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>1</v>
       </c>
@@ -7674,7 +7674,7 @@
       <c r="K87" s="13"/>
       <c r="L87" s="22"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>1</v>
       </c>
@@ -7706,7 +7706,7 @@
       <c r="K88" s="13"/>
       <c r="L88" s="22"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>1</v>
       </c>
@@ -7738,7 +7738,7 @@
       <c r="K89" s="13"/>
       <c r="L89" s="22"/>
     </row>
-    <row r="90" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>1</v>
       </c>
@@ -7770,7 +7770,7 @@
       <c r="K90" s="13"/>
       <c r="L90" s="22"/>
     </row>
-    <row r="91" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>1</v>
       </c>
@@ -7802,7 +7802,7 @@
       <c r="K91" s="13"/>
       <c r="L91" s="22"/>
     </row>
-    <row r="92" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>1</v>
       </c>
@@ -7834,7 +7834,7 @@
       <c r="K92" s="13"/>
       <c r="L92" s="22"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>1</v>
       </c>
@@ -7866,7 +7866,7 @@
       <c r="K93" s="13"/>
       <c r="L93" s="22"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>1</v>
       </c>
@@ -7898,7 +7898,7 @@
       <c r="K94" s="13"/>
       <c r="L94" s="22"/>
     </row>
-    <row r="95" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>1</v>
       </c>
@@ -7930,7 +7930,7 @@
       <c r="K95" s="13"/>
       <c r="L95" s="22"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>1</v>
       </c>
@@ -7962,7 +7962,7 @@
       <c r="K96" s="13"/>
       <c r="L96" s="22"/>
     </row>
-    <row r="97" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>1</v>
       </c>
@@ -7994,7 +7994,7 @@
       <c r="K97" s="13"/>
       <c r="L97" s="22"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>1</v>
       </c>
@@ -8026,7 +8026,7 @@
       <c r="K98" s="13"/>
       <c r="L98" s="22"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>1</v>
       </c>
@@ -8058,7 +8058,7 @@
       <c r="K99" s="13"/>
       <c r="L99" s="22"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>1</v>
       </c>
@@ -8090,7 +8090,7 @@
       <c r="K100" s="13"/>
       <c r="L100" s="22"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>1</v>
       </c>
@@ -8122,7 +8122,7 @@
       <c r="K101" s="13"/>
       <c r="L101" s="22"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>1</v>
       </c>
@@ -8154,7 +8154,7 @@
       <c r="K102" s="13"/>
       <c r="L102" s="22"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>1</v>
       </c>
@@ -8186,7 +8186,7 @@
       <c r="K103" s="13"/>
       <c r="L103" s="22"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>1</v>
       </c>
@@ -8218,7 +8218,7 @@
       <c r="K104" s="13"/>
       <c r="L104" s="22"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>1</v>
       </c>
@@ -8250,7 +8250,7 @@
       <c r="K105" s="13"/>
       <c r="L105" s="22"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>1</v>
       </c>
@@ -8282,7 +8282,7 @@
       <c r="K106" s="13"/>
       <c r="L106" s="22"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>1</v>
       </c>
@@ -8314,7 +8314,7 @@
       <c r="K107" s="13"/>
       <c r="L107" s="22"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>1</v>
       </c>
@@ -8346,7 +8346,7 @@
       <c r="K108" s="13"/>
       <c r="L108" s="22"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>1</v>
       </c>
@@ -8378,7 +8378,7 @@
       <c r="K109" s="13"/>
       <c r="L109" s="22"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>1</v>
       </c>
@@ -8410,7 +8410,7 @@
       <c r="K110" s="13"/>
       <c r="L110" s="22"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>1</v>
       </c>
@@ -8442,7 +8442,7 @@
       <c r="K111" s="13"/>
       <c r="L111" s="22"/>
     </row>
-    <row r="112" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>1</v>
       </c>
@@ -8474,7 +8474,7 @@
       <c r="K112" s="13"/>
       <c r="L112" s="22"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>1</v>
       </c>
@@ -8506,7 +8506,7 @@
       <c r="K113" s="13"/>
       <c r="L113" s="22"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>1</v>
       </c>
@@ -8538,7 +8538,7 @@
       <c r="K114" s="13"/>
       <c r="L114" s="22"/>
     </row>
-    <row r="115" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>1</v>
       </c>
@@ -8570,7 +8570,7 @@
       <c r="K115" s="13"/>
       <c r="L115" s="22"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>1</v>
       </c>
@@ -8602,7 +8602,7 @@
       <c r="K116" s="13"/>
       <c r="L116" s="22"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>1</v>
       </c>
@@ -8634,7 +8634,7 @@
       <c r="K117" s="13"/>
       <c r="L117" s="22"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>1</v>
       </c>
@@ -8666,7 +8666,7 @@
       <c r="K118" s="13"/>
       <c r="L118" s="22"/>
     </row>
-    <row r="119" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>1</v>
       </c>
@@ -8698,7 +8698,7 @@
       <c r="K119" s="13"/>
       <c r="L119" s="22"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>1</v>
       </c>
@@ -8730,7 +8730,7 @@
       <c r="K120" s="13"/>
       <c r="L120" s="22"/>
     </row>
-    <row r="121" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>1</v>
       </c>
@@ -8762,7 +8762,7 @@
       <c r="K121" s="13"/>
       <c r="L121" s="22"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>1</v>
       </c>
@@ -8794,7 +8794,7 @@
       <c r="K122" s="13"/>
       <c r="L122" s="22"/>
     </row>
-    <row r="123" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>1</v>
       </c>
@@ -8826,7 +8826,7 @@
       <c r="K123" s="13"/>
       <c r="L123" s="22"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>1</v>
       </c>
@@ -8858,7 +8858,7 @@
       <c r="K124" s="13"/>
       <c r="L124" s="22"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>1</v>
       </c>
@@ -8890,7 +8890,7 @@
       <c r="K125" s="13"/>
       <c r="L125" s="22"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>1</v>
       </c>
@@ -8922,7 +8922,7 @@
       <c r="K126" s="13"/>
       <c r="L126" s="22"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>1</v>
       </c>
@@ -8954,7 +8954,7 @@
       <c r="K127" s="13"/>
       <c r="L127" s="22"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>1</v>
       </c>
@@ -8986,7 +8986,7 @@
       <c r="K128" s="13"/>
       <c r="L128" s="22"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>1</v>
       </c>
@@ -9018,7 +9018,7 @@
       <c r="K129" s="13"/>
       <c r="L129" s="22"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>1</v>
       </c>
@@ -9050,7 +9050,7 @@
       <c r="K130" s="13"/>
       <c r="L130" s="22"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>1</v>
       </c>
@@ -9082,7 +9082,7 @@
       <c r="K131" s="13"/>
       <c r="L131" s="22"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>1</v>
       </c>
@@ -9114,7 +9114,7 @@
       <c r="K132" s="13"/>
       <c r="L132" s="22"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>1</v>
       </c>
@@ -9146,7 +9146,7 @@
       <c r="K133" s="13"/>
       <c r="L133" s="22"/>
     </row>
-    <row r="134" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>1</v>
       </c>
@@ -9178,7 +9178,7 @@
       <c r="K134" s="13"/>
       <c r="L134" s="22"/>
     </row>
-    <row r="135" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>1</v>
       </c>
@@ -9210,7 +9210,7 @@
       <c r="K135" s="13"/>
       <c r="L135" s="22"/>
     </row>
-    <row r="136" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>1</v>
       </c>
@@ -9242,7 +9242,7 @@
       <c r="K136" s="13"/>
       <c r="L136" s="22"/>
     </row>
-    <row r="137" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>1</v>
       </c>
@@ -9274,7 +9274,7 @@
       <c r="K137" s="13"/>
       <c r="L137" s="22"/>
     </row>
-    <row r="138" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>1</v>
       </c>
@@ -9306,7 +9306,7 @@
       <c r="K138" s="13"/>
       <c r="L138" s="22"/>
     </row>
-    <row r="139" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>1</v>
       </c>
@@ -9338,7 +9338,7 @@
       <c r="K139" s="13"/>
       <c r="L139" s="22"/>
     </row>
-    <row r="140" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>1</v>
       </c>
@@ -9370,7 +9370,7 @@
       <c r="K140" s="13"/>
       <c r="L140" s="22"/>
     </row>
-    <row r="141" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>1</v>
       </c>
@@ -9402,7 +9402,7 @@
       <c r="K141" s="13"/>
       <c r="L141" s="22"/>
     </row>
-    <row r="142" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>1</v>
       </c>
@@ -9434,7 +9434,7 @@
       <c r="K142" s="13"/>
       <c r="L142" s="22"/>
     </row>
-    <row r="143" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>1</v>
       </c>
@@ -9466,7 +9466,7 @@
       <c r="K143" s="13"/>
       <c r="L143" s="22"/>
     </row>
-    <row r="144" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>1</v>
       </c>
@@ -9498,7 +9498,7 @@
       <c r="K144" s="13"/>
       <c r="L144" s="22"/>
     </row>
-    <row r="145" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>1</v>
       </c>
@@ -9530,7 +9530,7 @@
       <c r="K145" s="13"/>
       <c r="L145" s="22"/>
     </row>
-    <row r="146" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>1</v>
       </c>
@@ -9562,7 +9562,7 @@
       <c r="K146" s="13"/>
       <c r="L146" s="22"/>
     </row>
-    <row r="147" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>1</v>
       </c>
@@ -9594,7 +9594,7 @@
       <c r="K147" s="13"/>
       <c r="L147" s="22"/>
     </row>
-    <row r="148" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>1</v>
       </c>
@@ -9626,7 +9626,7 @@
       <c r="K148" s="13"/>
       <c r="L148" s="22"/>
     </row>
-    <row r="149" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>1</v>
       </c>
@@ -9658,7 +9658,7 @@
       <c r="K149" s="13"/>
       <c r="L149" s="22"/>
     </row>
-    <row r="150" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>1</v>
       </c>
@@ -9690,7 +9690,7 @@
       <c r="K150" s="13"/>
       <c r="L150" s="22"/>
     </row>
-    <row r="151" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>1</v>
       </c>
@@ -9722,7 +9722,7 @@
       <c r="K151" s="13"/>
       <c r="L151" s="22"/>
     </row>
-    <row r="152" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>1</v>
       </c>
@@ -9754,7 +9754,7 @@
       <c r="K152" s="13"/>
       <c r="L152" s="22"/>
     </row>
-    <row r="153" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>1</v>
       </c>
@@ -9786,7 +9786,7 @@
       <c r="K153" s="13"/>
       <c r="L153" s="22"/>
     </row>
-    <row r="154" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>1</v>
       </c>
@@ -9818,7 +9818,7 @@
       <c r="K154" s="13"/>
       <c r="L154" s="22"/>
     </row>
-    <row r="155" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>1</v>
       </c>
@@ -9850,7 +9850,7 @@
       <c r="K155" s="13"/>
       <c r="L155" s="22"/>
     </row>
-    <row r="156" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>1</v>
       </c>
@@ -9882,7 +9882,7 @@
       <c r="K156" s="13"/>
       <c r="L156" s="22"/>
     </row>
-    <row r="157" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>1</v>
       </c>
@@ -9914,7 +9914,7 @@
       <c r="K157" s="13"/>
       <c r="L157" s="22"/>
     </row>
-    <row r="158" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>1</v>
       </c>
@@ -9946,7 +9946,7 @@
       <c r="K158" s="13"/>
       <c r="L158" s="22"/>
     </row>
-    <row r="159" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>1</v>
       </c>
@@ -9978,7 +9978,7 @@
       <c r="K159" s="13"/>
       <c r="L159" s="22"/>
     </row>
-    <row r="160" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>1</v>
       </c>
@@ -10010,7 +10010,7 @@
       <c r="K160" s="13"/>
       <c r="L160" s="22"/>
     </row>
-    <row r="161" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>1</v>
       </c>
@@ -10042,7 +10042,7 @@
       <c r="K161" s="13"/>
       <c r="L161" s="22"/>
     </row>
-    <row r="162" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>1</v>
       </c>
@@ -10074,7 +10074,7 @@
       <c r="K162" s="13"/>
       <c r="L162" s="22"/>
     </row>
-    <row r="163" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>1</v>
       </c>
@@ -10106,7 +10106,7 @@
       <c r="K163" s="13"/>
       <c r="L163" s="22"/>
     </row>
-    <row r="164" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>1</v>
       </c>
@@ -10138,7 +10138,7 @@
       <c r="K164" s="13"/>
       <c r="L164" s="22"/>
     </row>
-    <row r="165" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>1</v>
       </c>
@@ -10170,7 +10170,7 @@
       <c r="K165" s="13"/>
       <c r="L165" s="22"/>
     </row>
-    <row r="166" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>1</v>
       </c>
@@ -10202,7 +10202,7 @@
       <c r="K166" s="13"/>
       <c r="L166" s="22"/>
     </row>
-    <row r="167" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>1</v>
       </c>
@@ -10234,7 +10234,7 @@
       <c r="K167" s="13"/>
       <c r="L167" s="22"/>
     </row>
-    <row r="168" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>1</v>
       </c>
@@ -10266,7 +10266,7 @@
       <c r="K168" s="13"/>
       <c r="L168" s="22"/>
     </row>
-    <row r="169" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>1</v>
       </c>
@@ -10298,7 +10298,7 @@
       <c r="K169" s="13"/>
       <c r="L169" s="22"/>
     </row>
-    <row r="170" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>1</v>
       </c>
@@ -10330,7 +10330,7 @@
       <c r="K170" s="13"/>
       <c r="L170" s="22"/>
     </row>
-    <row r="171" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>1</v>
       </c>
@@ -10362,7 +10362,7 @@
       <c r="K171" s="13"/>
       <c r="L171" s="22"/>
     </row>
-    <row r="172" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>1</v>
       </c>
@@ -10394,7 +10394,7 @@
       <c r="K172" s="13"/>
       <c r="L172" s="22"/>
     </row>
-    <row r="173" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>1</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>1</v>
       </c>
@@ -10496,7 +10496,7 @@
       <c r="K175" s="13"/>
       <c r="L175" s="2"/>
     </row>
-    <row r="176" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>1</v>
       </c>
@@ -10528,7 +10528,7 @@
       <c r="K176" s="13"/>
       <c r="L176" s="2"/>
     </row>
-    <row r="177" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>1</v>
       </c>
@@ -10560,7 +10560,7 @@
       <c r="K177" s="13"/>
       <c r="L177" s="2"/>
     </row>
-    <row r="178" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>1</v>
       </c>
@@ -10592,7 +10592,7 @@
       <c r="K178" s="13"/>
       <c r="L178" s="2"/>
     </row>
-    <row r="179" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>1</v>
       </c>
@@ -10624,7 +10624,7 @@
       <c r="K179" s="13"/>
       <c r="L179" s="2"/>
     </row>
-    <row r="180" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>1</v>
       </c>
@@ -10656,7 +10656,7 @@
       <c r="K180" s="13"/>
       <c r="L180" s="2"/>
     </row>
-    <row r="181" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>1</v>
       </c>
@@ -10688,7 +10688,7 @@
       <c r="K181" s="13"/>
       <c r="L181" s="2"/>
     </row>
-    <row r="182" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>1</v>
       </c>
@@ -10720,7 +10720,7 @@
       <c r="K182" s="13"/>
       <c r="L182" s="2"/>
     </row>
-    <row r="183" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>1</v>
       </c>
@@ -10752,7 +10752,7 @@
       <c r="K183" s="13"/>
       <c r="L183" s="2"/>
     </row>
-    <row r="184" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>1</v>
       </c>
@@ -10784,7 +10784,7 @@
       <c r="K184" s="13"/>
       <c r="L184" s="2"/>
     </row>
-    <row r="185" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>1</v>
       </c>
@@ -10816,7 +10816,7 @@
       <c r="K185" s="13"/>
       <c r="L185" s="2"/>
     </row>
-    <row r="186" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>1</v>
       </c>
@@ -10848,7 +10848,7 @@
       <c r="K186" s="13"/>
       <c r="L186" s="2"/>
     </row>
-    <row r="187" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>1</v>
       </c>
@@ -10880,7 +10880,7 @@
       <c r="K187" s="13"/>
       <c r="L187" s="2"/>
     </row>
-    <row r="188" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>1</v>
       </c>
@@ -10912,7 +10912,7 @@
       <c r="K188" s="13"/>
       <c r="L188" s="2"/>
     </row>
-    <row r="189" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>1</v>
       </c>
@@ -10944,7 +10944,7 @@
       <c r="K189" s="13"/>
       <c r="L189" s="2"/>
     </row>
-    <row r="190" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>1</v>
       </c>
@@ -10976,7 +10976,7 @@
       <c r="K190" s="13"/>
       <c r="L190" s="2"/>
     </row>
-    <row r="191" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>1</v>
       </c>
@@ -11008,7 +11008,7 @@
       <c r="K191" s="13"/>
       <c r="L191" s="2"/>
     </row>
-    <row r="192" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>1</v>
       </c>
@@ -11040,7 +11040,7 @@
       <c r="K192" s="13"/>
       <c r="L192" s="2"/>
     </row>
-    <row r="193" spans="1:16374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>1</v>
       </c>
@@ -11072,7 +11072,7 @@
       <c r="K193" s="13"/>
       <c r="L193" s="2"/>
     </row>
-    <row r="194" spans="1:16374" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16374" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="21" t="s">
         <v>1</v>
       </c>
@@ -27466,7 +27466,7 @@
       <c r="XES194" s="17"/>
       <c r="XET194" s="18"/>
     </row>
-    <row r="195" spans="1:16374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>1</v>
       </c>
@@ -27498,7 +27498,7 @@
       <c r="K195" s="13"/>
       <c r="L195" s="2"/>
     </row>
-    <row r="196" spans="1:16374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>1</v>
       </c>
@@ -27530,7 +27530,7 @@
       <c r="K196" s="13"/>
       <c r="L196" s="2"/>
     </row>
-    <row r="197" spans="1:16374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>1</v>
       </c>
@@ -27562,7 +27562,7 @@
       <c r="K197" s="13"/>
       <c r="L197" s="2"/>
     </row>
-    <row r="198" spans="1:16374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>1</v>
       </c>
@@ -27594,7 +27594,7 @@
       <c r="K198" s="13"/>
       <c r="L198" s="2"/>
     </row>
-    <row r="199" spans="1:16374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>1</v>
       </c>
@@ -27626,7 +27626,7 @@
       <c r="K199" s="13"/>
       <c r="L199" s="2"/>
     </row>
-    <row r="200" spans="1:16374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>1</v>
       </c>
@@ -27658,7 +27658,7 @@
       <c r="K200" s="13"/>
       <c r="L200" s="2"/>
     </row>
-    <row r="201" spans="1:16374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>1</v>
       </c>
@@ -27690,7 +27690,7 @@
       <c r="K201" s="13"/>
       <c r="L201" s="2"/>
     </row>
-    <row r="202" spans="1:16374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>1</v>
       </c>
@@ -27722,7 +27722,7 @@
       <c r="K202" s="13"/>
       <c r="L202" s="2"/>
     </row>
-    <row r="203" spans="1:16374" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16374" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>1</v>
       </c>
@@ -27754,7 +27754,7 @@
       <c r="K203" s="13"/>
       <c r="L203" s="2"/>
     </row>
-    <row r="204" spans="1:16374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>1</v>
       </c>
@@ -27786,7 +27786,7 @@
       <c r="K204" s="13"/>
       <c r="L204" s="2"/>
     </row>
-    <row r="205" spans="1:16374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>1</v>
       </c>
@@ -27818,7 +27818,7 @@
       <c r="K205" s="13"/>
       <c r="L205" s="2"/>
     </row>
-    <row r="206" spans="1:16374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>1</v>
       </c>
@@ -27850,7 +27850,7 @@
       <c r="K206" s="13"/>
       <c r="L206" s="2"/>
     </row>
-    <row r="207" spans="1:16374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>1</v>
       </c>
@@ -27882,7 +27882,7 @@
       <c r="K207" s="13"/>
       <c r="L207" s="2"/>
     </row>
-    <row r="208" spans="1:16374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>1</v>
       </c>
@@ -27914,7 +27914,7 @@
       <c r="K208" s="13"/>
       <c r="L208" s="2"/>
     </row>
-    <row r="209" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>1</v>
       </c>
@@ -27946,7 +27946,7 @@
       <c r="K209" s="13"/>
       <c r="L209" s="2"/>
     </row>
-    <row r="210" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>1</v>
       </c>
@@ -27978,7 +27978,7 @@
       <c r="K210" s="13"/>
       <c r="L210" s="2"/>
     </row>
-    <row r="211" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>1</v>
       </c>
@@ -28010,7 +28010,7 @@
       <c r="K211" s="13"/>
       <c r="L211" s="2"/>
     </row>
-    <row r="212" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>1</v>
       </c>
@@ -28042,7 +28042,7 @@
       <c r="K212" s="13"/>
       <c r="L212" s="2"/>
     </row>
-    <row r="213" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>1</v>
       </c>
@@ -28074,7 +28074,7 @@
       <c r="K213" s="13"/>
       <c r="L213" s="2"/>
     </row>
-    <row r="214" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>1</v>
       </c>
@@ -28106,7 +28106,7 @@
       <c r="K214" s="13"/>
       <c r="L214" s="2"/>
     </row>
-    <row r="215" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>1</v>
       </c>
@@ -28138,7 +28138,7 @@
       <c r="K215" s="13"/>
       <c r="L215" s="2"/>
     </row>
-    <row r="216" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>1</v>
       </c>
@@ -28170,7 +28170,7 @@
       <c r="K216" s="13"/>
       <c r="L216" s="2"/>
     </row>
-    <row r="217" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>1</v>
       </c>
@@ -28202,7 +28202,7 @@
       <c r="K217" s="13"/>
       <c r="L217" s="2"/>
     </row>
-    <row r="218" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>1</v>
       </c>
@@ -28234,7 +28234,7 @@
       <c r="K218" s="13"/>
       <c r="L218" s="2"/>
     </row>
-    <row r="219" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>1</v>
       </c>
@@ -28266,7 +28266,7 @@
       <c r="K219" s="13"/>
       <c r="L219" s="2"/>
     </row>
-    <row r="220" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="14" t="s">
         <v>1</v>
       </c>
@@ -28304,7 +28304,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>1</v>
       </c>
@@ -28336,7 +28336,7 @@
       <c r="K221" s="13"/>
       <c r="L221" s="2"/>
     </row>
-    <row r="222" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>1</v>
       </c>
@@ -28368,7 +28368,7 @@
       <c r="K222" s="13"/>
       <c r="L222" s="2"/>
     </row>
-    <row r="223" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>1</v>
       </c>
@@ -28400,7 +28400,7 @@
       <c r="K223" s="13"/>
       <c r="L223" s="2"/>
     </row>
-    <row r="224" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>1</v>
       </c>
@@ -28432,7 +28432,7 @@
       <c r="K224" s="13"/>
       <c r="L224" s="2"/>
     </row>
-    <row r="225" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>1</v>
       </c>
@@ -28464,7 +28464,7 @@
       <c r="K225" s="13"/>
       <c r="L225" s="2"/>
     </row>
-    <row r="226" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>1</v>
       </c>
@@ -28496,7 +28496,7 @@
       <c r="K226" s="13"/>
       <c r="L226" s="2"/>
     </row>
-    <row r="227" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>1</v>
       </c>
@@ -28528,7 +28528,7 @@
       <c r="K227" s="13"/>
       <c r="L227" s="2"/>
     </row>
-    <row r="228" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>1</v>
       </c>
@@ -28566,7 +28566,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>1</v>
       </c>
@@ -28598,7 +28598,7 @@
       <c r="K229" s="13"/>
       <c r="L229" s="2"/>
     </row>
-    <row r="230" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>1</v>
       </c>
@@ -28630,7 +28630,7 @@
       <c r="K230" s="13"/>
       <c r="L230" s="2"/>
     </row>
-    <row r="231" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>1</v>
       </c>
@@ -28662,7 +28662,7 @@
       <c r="K231" s="13"/>
       <c r="L231" s="2"/>
     </row>
-    <row r="232" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>1</v>
       </c>
@@ -28694,7 +28694,7 @@
       <c r="K232" s="13"/>
       <c r="L232" s="2"/>
     </row>
-    <row r="233" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>1</v>
       </c>
@@ -28726,7 +28726,7 @@
       <c r="K233" s="13"/>
       <c r="L233" s="2"/>
     </row>
-    <row r="234" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>1</v>
       </c>
@@ -28758,7 +28758,7 @@
       <c r="K234" s="13"/>
       <c r="L234" s="2"/>
     </row>
-    <row r="235" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>1</v>
       </c>
@@ -28790,7 +28790,7 @@
       <c r="K235" s="13"/>
       <c r="L235" s="2"/>
     </row>
-    <row r="236" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>1</v>
       </c>
@@ -28822,7 +28822,7 @@
       <c r="K236" s="13"/>
       <c r="L236" s="2"/>
     </row>
-    <row r="237" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>1</v>
       </c>
@@ -28854,7 +28854,7 @@
       <c r="K237" s="13"/>
       <c r="L237" s="2"/>
     </row>
-    <row r="238" spans="1:12" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" s="9" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>1</v>
       </c>
@@ -28886,7 +28886,7 @@
       <c r="K238" s="13"/>
       <c r="L238" s="2"/>
     </row>
-    <row r="239" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>1</v>
       </c>
@@ -28918,7 +28918,7 @@
       <c r="K239" s="13"/>
       <c r="L239" s="2"/>
     </row>
-    <row r="240" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>1</v>
       </c>
@@ -28950,7 +28950,7 @@
       <c r="K240" s="13"/>
       <c r="L240" s="2"/>
     </row>
-    <row r="241" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>1</v>
       </c>
@@ -28982,7 +28982,7 @@
       <c r="K241" s="13"/>
       <c r="L241" s="2"/>
     </row>
-    <row r="242" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>1</v>
       </c>
@@ -29014,7 +29014,7 @@
       <c r="K242" s="13"/>
       <c r="L242" s="2"/>
     </row>
-    <row r="243" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="14" t="s">
         <v>1</v>
       </c>
@@ -29052,7 +29052,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="244" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>1</v>
       </c>
@@ -29084,7 +29084,7 @@
       <c r="K244" s="13"/>
       <c r="L244" s="2"/>
     </row>
-    <row r="245" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>1</v>
       </c>
@@ -29116,7 +29116,7 @@
       <c r="K245" s="13"/>
       <c r="L245" s="2"/>
     </row>
-    <row r="246" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>1</v>
       </c>
@@ -29148,7 +29148,7 @@
       <c r="K246" s="13"/>
       <c r="L246" s="2"/>
     </row>
-    <row r="247" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>1</v>
       </c>
@@ -29180,7 +29180,7 @@
       <c r="K247" s="13"/>
       <c r="L247" s="2"/>
     </row>
-    <row r="248" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>1</v>
       </c>
@@ -29212,7 +29212,7 @@
       <c r="K248" s="13"/>
       <c r="L248" s="2"/>
     </row>
-    <row r="249" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>1</v>
       </c>
@@ -29244,7 +29244,7 @@
       <c r="K249" s="13"/>
       <c r="L249" s="2"/>
     </row>
-    <row r="250" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>1</v>
       </c>
@@ -29276,7 +29276,7 @@
       <c r="K250" s="13"/>
       <c r="L250" s="2"/>
     </row>
-    <row r="251" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>1</v>
       </c>
@@ -29314,7 +29314,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="252" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>1</v>
       </c>
@@ -29346,7 +29346,7 @@
       <c r="K252" s="13"/>
       <c r="L252" s="2"/>
     </row>
-    <row r="253" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>1</v>
       </c>
@@ -29378,7 +29378,7 @@
       <c r="K253" s="13"/>
       <c r="L253" s="2"/>
     </row>
-    <row r="254" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>1</v>
       </c>
@@ -29410,7 +29410,7 @@
       <c r="K254" s="13"/>
       <c r="L254" s="2"/>
     </row>
-    <row r="255" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>1</v>
       </c>
@@ -29442,7 +29442,7 @@
       <c r="K255" s="13"/>
       <c r="L255" s="2"/>
     </row>
-    <row r="256" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="14" t="s">
         <v>1</v>
       </c>
@@ -29480,7 +29480,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>1</v>
       </c>
@@ -29512,7 +29512,7 @@
       <c r="K257" s="13"/>
       <c r="L257" s="2"/>
     </row>
-    <row r="258" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>1</v>
       </c>
@@ -29544,7 +29544,7 @@
       <c r="K258" s="13"/>
       <c r="L258" s="2"/>
     </row>
-    <row r="259" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>1</v>
       </c>
@@ -29576,7 +29576,7 @@
       <c r="K259" s="13"/>
       <c r="L259" s="2"/>
     </row>
-    <row r="260" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>1</v>
       </c>
@@ -29608,7 +29608,7 @@
       <c r="K260" s="13"/>
       <c r="L260" s="2"/>
     </row>
-    <row r="261" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>1</v>
       </c>
@@ -29640,7 +29640,7 @@
       <c r="K261" s="13"/>
       <c r="L261" s="2"/>
     </row>
-    <row r="262" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>1</v>
       </c>
@@ -29672,7 +29672,7 @@
       <c r="K262" s="13"/>
       <c r="L262" s="2"/>
     </row>
-    <row r="263" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>1</v>
       </c>
@@ -29704,7 +29704,7 @@
       <c r="K263" s="13"/>
       <c r="L263" s="2"/>
     </row>
-    <row r="264" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>1</v>
       </c>
@@ -29736,7 +29736,7 @@
       <c r="K264" s="13"/>
       <c r="L264" s="2"/>
     </row>
-    <row r="265" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>1</v>
       </c>
@@ -29768,7 +29768,7 @@
       <c r="K265" s="13"/>
       <c r="L265" s="2"/>
     </row>
-    <row r="266" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>1</v>
       </c>
@@ -29800,7 +29800,7 @@
       <c r="K266" s="13"/>
       <c r="L266" s="2"/>
     </row>
-    <row r="267" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>1</v>
       </c>
@@ -29832,7 +29832,7 @@
       <c r="K267" s="13"/>
       <c r="L267" s="2"/>
     </row>
-    <row r="268" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>1</v>
       </c>
@@ -29864,7 +29864,7 @@
       <c r="K268" s="13"/>
       <c r="L268" s="2"/>
     </row>
-    <row r="269" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>1</v>
       </c>
@@ -29896,7 +29896,7 @@
       <c r="K269" s="13"/>
       <c r="L269" s="2"/>
     </row>
-    <row r="270" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>1</v>
       </c>
@@ -29928,7 +29928,7 @@
       <c r="K270" s="13"/>
       <c r="L270" s="2"/>
     </row>
-    <row r="271" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>1</v>
       </c>
@@ -29960,7 +29960,7 @@
       <c r="K271" s="13"/>
       <c r="L271" s="2"/>
     </row>
-    <row r="272" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>1</v>
       </c>
@@ -29992,7 +29992,7 @@
       <c r="K272" s="13"/>
       <c r="L272" s="2"/>
     </row>
-    <row r="273" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>1</v>
       </c>
@@ -30024,7 +30024,7 @@
       <c r="K273" s="13"/>
       <c r="L273" s="2"/>
     </row>
-    <row r="274" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>1</v>
       </c>
@@ -30056,7 +30056,7 @@
       <c r="K274" s="13"/>
       <c r="L274" s="2"/>
     </row>
-    <row r="275" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>1</v>
       </c>
@@ -30088,7 +30088,7 @@
       <c r="K275" s="13"/>
       <c r="L275" s="2"/>
     </row>
-    <row r="276" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>1</v>
       </c>
@@ -30120,7 +30120,7 @@
       <c r="K276" s="13"/>
       <c r="L276" s="2"/>
     </row>
-    <row r="277" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>1</v>
       </c>
@@ -30152,7 +30152,7 @@
       <c r="K277" s="13"/>
       <c r="L277" s="2"/>
     </row>
-    <row r="278" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>1</v>
       </c>
@@ -30184,7 +30184,7 @@
       <c r="K278" s="13"/>
       <c r="L278" s="2"/>
     </row>
-    <row r="279" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>1</v>
       </c>
@@ -30216,7 +30216,7 @@
       <c r="K279" s="13"/>
       <c r="L279" s="2"/>
     </row>
-    <row r="280" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>1</v>
       </c>
@@ -30248,7 +30248,7 @@
       <c r="K280" s="13"/>
       <c r="L280" s="2"/>
     </row>
-    <row r="281" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>1</v>
       </c>
@@ -30280,7 +30280,7 @@
       <c r="K281" s="13"/>
       <c r="L281" s="2"/>
     </row>
-    <row r="282" spans="1:12" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" s="9" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>1</v>
       </c>
@@ -30312,7 +30312,7 @@
       <c r="K282" s="13"/>
       <c r="L282" s="2"/>
     </row>
-    <row r="283" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>1</v>
       </c>
@@ -30344,7 +30344,7 @@
       <c r="K283" s="13"/>
       <c r="L283" s="2"/>
     </row>
-    <row r="284" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="19" t="s">
         <v>1</v>
       </c>
@@ -30382,7 +30382,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="285" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>1</v>
       </c>
@@ -30414,7 +30414,7 @@
       <c r="K285" s="13"/>
       <c r="L285" s="2"/>
     </row>
-    <row r="286" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>1</v>
       </c>
@@ -30446,7 +30446,7 @@
       <c r="K286" s="13"/>
       <c r="L286" s="2"/>
     </row>
-    <row r="287" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>1</v>
       </c>
@@ -30478,7 +30478,7 @@
       <c r="K287" s="13"/>
       <c r="L287" s="2"/>
     </row>
-    <row r="288" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>1</v>
       </c>
@@ -30510,7 +30510,7 @@
       <c r="K288" s="13"/>
       <c r="L288" s="2"/>
     </row>
-    <row r="289" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="14" t="s">
         <v>1</v>
       </c>
@@ -30548,7 +30548,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="290" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>1</v>
       </c>
@@ -30580,7 +30580,7 @@
       <c r="K290" s="13"/>
       <c r="L290" s="2"/>
     </row>
-    <row r="291" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="14" t="s">
         <v>1</v>
       </c>
@@ -30618,7 +30618,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="292" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>1</v>
       </c>
@@ -30650,7 +30650,7 @@
       <c r="K292" s="13"/>
       <c r="L292" s="2"/>
     </row>
-    <row r="293" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>1</v>
       </c>
@@ -30688,7 +30688,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>1</v>
       </c>
@@ -30720,7 +30720,7 @@
       <c r="K294" s="13"/>
       <c r="L294" s="2"/>
     </row>
-    <row r="295" spans="1:12" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" s="9" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>1</v>
       </c>
@@ -30752,7 +30752,7 @@
       <c r="K295" s="13"/>
       <c r="L295" s="2"/>
     </row>
-    <row r="296" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>1</v>
       </c>
@@ -30784,7 +30784,7 @@
       <c r="K296" s="13"/>
       <c r="L296" s="2"/>
     </row>
-    <row r="297" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>1</v>
       </c>
@@ -30816,7 +30816,7 @@
       <c r="K297" s="13"/>
       <c r="L297" s="2"/>
     </row>
-    <row r="298" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>1</v>
       </c>
@@ -30848,7 +30848,7 @@
       <c r="K298" s="13"/>
       <c r="L298" s="2"/>
     </row>
-    <row r="299" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>1</v>
       </c>
@@ -30880,7 +30880,7 @@
       <c r="K299" s="13"/>
       <c r="L299" s="2"/>
     </row>
-    <row r="300" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>1</v>
       </c>
@@ -30912,7 +30912,7 @@
       <c r="K300" s="13"/>
       <c r="L300" s="2"/>
     </row>
-    <row r="301" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>1</v>
       </c>
@@ -30944,7 +30944,7 @@
       <c r="K301" s="13"/>
       <c r="L301" s="2"/>
     </row>
-    <row r="302" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>1</v>
       </c>
@@ -30976,7 +30976,7 @@
       <c r="K302" s="13"/>
       <c r="L302" s="2"/>
     </row>
-    <row r="303" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>1</v>
       </c>
@@ -31008,7 +31008,7 @@
       <c r="K303" s="13"/>
       <c r="L303" s="2"/>
     </row>
-    <row r="304" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>1</v>
       </c>
@@ -31040,7 +31040,7 @@
       <c r="K304" s="13"/>
       <c r="L304" s="2"/>
     </row>
-    <row r="305" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>1</v>
       </c>
@@ -31072,7 +31072,7 @@
       <c r="K305" s="13"/>
       <c r="L305" s="2"/>
     </row>
-    <row r="306" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>1</v>
       </c>
@@ -31104,7 +31104,7 @@
       <c r="K306" s="13"/>
       <c r="L306" s="2"/>
     </row>
-    <row r="307" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>1</v>
       </c>
@@ -31142,7 +31142,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="308" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>1</v>
       </c>
@@ -31174,7 +31174,7 @@
       <c r="K308" s="13"/>
       <c r="L308" s="2"/>
     </row>
-    <row r="309" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>1</v>
       </c>
@@ -31206,7 +31206,7 @@
       <c r="K309" s="13"/>
       <c r="L309" s="2"/>
     </row>
-    <row r="310" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>1</v>
       </c>
@@ -31238,7 +31238,7 @@
       <c r="K310" s="13"/>
       <c r="L310" s="2"/>
     </row>
-    <row r="311" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>1</v>
       </c>
@@ -31270,7 +31270,7 @@
       <c r="K311" s="13"/>
       <c r="L311" s="2"/>
     </row>
-    <row r="312" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>1</v>
       </c>
@@ -31302,7 +31302,7 @@
       <c r="K312" s="13"/>
       <c r="L312" s="2"/>
     </row>
-    <row r="313" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>1</v>
       </c>
@@ -31334,7 +31334,7 @@
       <c r="K313" s="13"/>
       <c r="L313" s="2"/>
     </row>
-    <row r="314" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>1</v>
       </c>
@@ -31366,7 +31366,7 @@
       <c r="K314" s="13"/>
       <c r="L314" s="2"/>
     </row>
-    <row r="315" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>1</v>
       </c>
@@ -31398,7 +31398,7 @@
       <c r="K315" s="13"/>
       <c r="L315" s="2"/>
     </row>
-    <row r="316" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>1</v>
       </c>
@@ -31430,7 +31430,7 @@
       <c r="K316" s="13"/>
       <c r="L316" s="2"/>
     </row>
-    <row r="317" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>1</v>
       </c>
@@ -31462,7 +31462,7 @@
       <c r="K317" s="13"/>
       <c r="L317" s="2"/>
     </row>
-    <row r="318" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>1</v>
       </c>
@@ -31494,7 +31494,7 @@
       <c r="K318" s="13"/>
       <c r="L318" s="2"/>
     </row>
-    <row r="319" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>1</v>
       </c>
@@ -31526,7 +31526,7 @@
       <c r="K319" s="13"/>
       <c r="L319" s="2"/>
     </row>
-    <row r="320" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="19" t="s">
         <v>1</v>
       </c>
@@ -31564,7 +31564,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="321" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="19" t="s">
         <v>1</v>
       </c>
@@ -31602,7 +31602,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="322" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>1</v>
       </c>
@@ -31634,7 +31634,7 @@
       <c r="K322" s="13"/>
       <c r="L322" s="2"/>
     </row>
-    <row r="323" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>1</v>
       </c>
@@ -31666,7 +31666,7 @@
       <c r="K323" s="13"/>
       <c r="L323" s="2"/>
     </row>
-    <row r="324" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>1</v>
       </c>
@@ -31698,7 +31698,7 @@
       <c r="K324" s="13"/>
       <c r="L324" s="2"/>
     </row>
-    <row r="325" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>1</v>
       </c>
@@ -31730,7 +31730,7 @@
       <c r="K325" s="13"/>
       <c r="L325" s="2"/>
     </row>
-    <row r="326" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>1</v>
       </c>
@@ -31762,7 +31762,7 @@
       <c r="K326" s="13"/>
       <c r="L326" s="2"/>
     </row>
-    <row r="327" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>1</v>
       </c>
@@ -31794,7 +31794,7 @@
       <c r="K327" s="13"/>
       <c r="L327" s="2"/>
     </row>
-    <row r="328" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>1</v>
       </c>
@@ -31826,7 +31826,7 @@
       <c r="K328" s="13"/>
       <c r="L328" s="2"/>
     </row>
-    <row r="329" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>1</v>
       </c>
@@ -31858,7 +31858,7 @@
       <c r="K329" s="13"/>
       <c r="L329" s="2"/>
     </row>
-    <row r="330" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>1</v>
       </c>
@@ -31890,7 +31890,7 @@
       <c r="K330" s="13"/>
       <c r="L330" s="2"/>
     </row>
-    <row r="331" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>1</v>
       </c>
@@ -31922,7 +31922,7 @@
       <c r="K331" s="13"/>
       <c r="L331" s="2"/>
     </row>
-    <row r="332" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="19" t="s">
         <v>1</v>
       </c>
@@ -31960,7 +31960,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="333" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>1</v>
       </c>
@@ -31992,7 +31992,7 @@
       <c r="K333" s="13"/>
       <c r="L333" s="2"/>
     </row>
-    <row r="334" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>1</v>
       </c>
@@ -32024,7 +32024,7 @@
       <c r="K334" s="13"/>
       <c r="L334" s="2"/>
     </row>
-    <row r="335" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>1</v>
       </c>
@@ -32056,7 +32056,7 @@
       <c r="K335" s="13"/>
       <c r="L335" s="2"/>
     </row>
-    <row r="336" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>1</v>
       </c>
@@ -32088,7 +32088,7 @@
       <c r="K336" s="13"/>
       <c r="L336" s="2"/>
     </row>
-    <row r="337" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>1</v>
       </c>
@@ -32120,7 +32120,7 @@
       <c r="K337" s="13"/>
       <c r="L337" s="2"/>
     </row>
-    <row r="338" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>1</v>
       </c>
@@ -32152,7 +32152,7 @@
       <c r="K338" s="13"/>
       <c r="L338" s="2"/>
     </row>
-    <row r="339" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>1</v>
       </c>
@@ -32184,7 +32184,7 @@
       <c r="K339" s="13"/>
       <c r="L339" s="2"/>
     </row>
-    <row r="340" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>1</v>
       </c>
@@ -32216,7 +32216,7 @@
       <c r="K340" s="13"/>
       <c r="L340" s="2"/>
     </row>
-    <row r="341" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>1</v>
       </c>
@@ -32248,7 +32248,7 @@
       <c r="K341" s="13"/>
       <c r="L341" s="2"/>
     </row>
-    <row r="342" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>1</v>
       </c>
@@ -32280,7 +32280,7 @@
       <c r="K342" s="13"/>
       <c r="L342" s="2"/>
     </row>
-    <row r="343" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>1</v>
       </c>
@@ -32312,7 +32312,7 @@
       <c r="K343" s="13"/>
       <c r="L343" s="2"/>
     </row>
-    <row r="344" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>1</v>
       </c>
@@ -32344,7 +32344,7 @@
       <c r="K344" s="13"/>
       <c r="L344" s="2"/>
     </row>
-    <row r="345" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>1</v>
       </c>
@@ -32376,7 +32376,7 @@
       <c r="K345" s="13"/>
       <c r="L345" s="2"/>
     </row>
-    <row r="346" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>1</v>
       </c>
@@ -32408,7 +32408,7 @@
       <c r="K346" s="13"/>
       <c r="L346" s="2"/>
     </row>
-    <row r="347" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>1</v>
       </c>
@@ -32440,7 +32440,7 @@
       <c r="K347" s="13"/>
       <c r="L347" s="2"/>
     </row>
-    <row r="348" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>1</v>
       </c>
@@ -32472,7 +32472,7 @@
       <c r="K348" s="13"/>
       <c r="L348" s="2"/>
     </row>
-    <row r="349" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>1</v>
       </c>
@@ -32504,7 +32504,7 @@
       <c r="K349" s="13"/>
       <c r="L349" s="2"/>
     </row>
-    <row r="350" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>1</v>
       </c>
@@ -32536,7 +32536,7 @@
       <c r="K350" s="13"/>
       <c r="L350" s="2"/>
     </row>
-    <row r="351" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>1</v>
       </c>
@@ -32568,7 +32568,7 @@
       <c r="K351" s="13"/>
       <c r="L351" s="2"/>
     </row>
-    <row r="352" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>1</v>
       </c>
@@ -32600,7 +32600,7 @@
       <c r="K352" s="13"/>
       <c r="L352" s="2"/>
     </row>
-    <row r="353" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>1</v>
       </c>
@@ -32632,7 +32632,7 @@
       <c r="K353" s="13"/>
       <c r="L353" s="2"/>
     </row>
-    <row r="354" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>1</v>
       </c>
@@ -32664,7 +32664,7 @@
       <c r="K354" s="13"/>
       <c r="L354" s="2"/>
     </row>
-    <row r="355" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="19" t="s">
         <v>1</v>
       </c>
@@ -32702,7 +32702,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="356" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="19" t="s">
         <v>1</v>
       </c>
@@ -32740,7 +32740,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="357" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>1</v>
       </c>
@@ -32772,7 +32772,7 @@
       <c r="K357" s="13"/>
       <c r="L357" s="2"/>
     </row>
-    <row r="358" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>1</v>
       </c>
@@ -32804,7 +32804,7 @@
       <c r="K358" s="13"/>
       <c r="L358" s="2"/>
     </row>
-    <row r="359" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>1</v>
       </c>
@@ -32836,7 +32836,7 @@
       <c r="K359" s="13"/>
       <c r="L359" s="2"/>
     </row>
-    <row r="360" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>1</v>
       </c>
@@ -32868,7 +32868,7 @@
       <c r="K360" s="13"/>
       <c r="L360" s="2"/>
     </row>
-    <row r="361" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>1</v>
       </c>
@@ -32900,7 +32900,7 @@
       <c r="K361" s="13"/>
       <c r="L361" s="2"/>
     </row>
-    <row r="362" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>1</v>
       </c>
@@ -32932,7 +32932,7 @@
       <c r="K362" s="13"/>
       <c r="L362" s="2"/>
     </row>
-    <row r="363" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>1</v>
       </c>
@@ -32964,7 +32964,7 @@
       <c r="K363" s="13"/>
       <c r="L363" s="2"/>
     </row>
-    <row r="364" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>1</v>
       </c>
@@ -32996,7 +32996,7 @@
       <c r="K364" s="13"/>
       <c r="L364" s="2"/>
     </row>
-    <row r="365" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="19" t="s">
         <v>1</v>
       </c>
@@ -33034,7 +33034,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="366" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>1</v>
       </c>
@@ -33066,7 +33066,7 @@
       <c r="K366" s="13"/>
       <c r="L366" s="2"/>
     </row>
-    <row r="367" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>1</v>
       </c>
@@ -33098,7 +33098,7 @@
       <c r="K367" s="13"/>
       <c r="L367" s="2"/>
     </row>
-    <row r="368" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>1</v>
       </c>
@@ -33130,7 +33130,7 @@
       <c r="K368" s="13"/>
       <c r="L368" s="2"/>
     </row>
-    <row r="369" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
         <v>1</v>
       </c>
@@ -33162,7 +33162,7 @@
       <c r="K369" s="13"/>
       <c r="L369" s="2"/>
     </row>
-    <row r="370" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
         <v>1</v>
       </c>
@@ -33194,7 +33194,7 @@
       <c r="K370" s="13"/>
       <c r="L370" s="2"/>
     </row>
-    <row r="371" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
         <v>1</v>
       </c>
@@ -33226,7 +33226,7 @@
       <c r="K371" s="13"/>
       <c r="L371" s="2"/>
     </row>
-    <row r="372" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
         <v>1</v>
       </c>
@@ -33258,7 +33258,7 @@
       <c r="K372" s="13"/>
       <c r="L372" s="2"/>
     </row>
-    <row r="373" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
         <v>1</v>
       </c>
@@ -33290,7 +33290,7 @@
       <c r="K373" s="13"/>
       <c r="L373" s="2"/>
     </row>
-    <row r="374" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
         <v>1</v>
       </c>
@@ -33322,7 +33322,7 @@
       <c r="K374" s="13"/>
       <c r="L374" s="2"/>
     </row>
-    <row r="375" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
         <v>1</v>
       </c>
@@ -33354,7 +33354,7 @@
       <c r="K375" s="13"/>
       <c r="L375" s="2"/>
     </row>
-    <row r="376" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
         <v>1</v>
       </c>
@@ -33386,7 +33386,7 @@
       <c r="K376" s="13"/>
       <c r="L376" s="2"/>
     </row>
-    <row r="377" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
         <v>1</v>
       </c>
@@ -33418,7 +33418,7 @@
       <c r="K377" s="13"/>
       <c r="L377" s="2"/>
     </row>
-    <row r="378" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
         <v>1</v>
       </c>
@@ -33450,7 +33450,7 @@
       <c r="K378" s="13"/>
       <c r="L378" s="2"/>
     </row>
-    <row r="379" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>1</v>
       </c>
@@ -33482,7 +33482,7 @@
       <c r="K379" s="13"/>
       <c r="L379" s="2"/>
     </row>
-    <row r="380" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
         <v>1</v>
       </c>
@@ -33514,7 +33514,7 @@
       <c r="K380" s="13"/>
       <c r="L380" s="2"/>
     </row>
-    <row r="381" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
         <v>1</v>
       </c>
@@ -33546,7 +33546,7 @@
       <c r="K381" s="13"/>
       <c r="L381" s="2"/>
     </row>
-    <row r="382" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
         <v>1</v>
       </c>
@@ -33578,7 +33578,7 @@
       <c r="K382" s="13"/>
       <c r="L382" s="2"/>
     </row>
-    <row r="383" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
         <v>1</v>
       </c>
@@ -33610,7 +33610,7 @@
       <c r="K383" s="13"/>
       <c r="L383" s="2"/>
     </row>
-    <row r="384" spans="1:12" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" s="9" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
         <v>1</v>
       </c>
@@ -33642,7 +33642,7 @@
       <c r="K384" s="13"/>
       <c r="L384" s="2"/>
     </row>
-    <row r="385" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
         <v>1</v>
       </c>
@@ -33674,7 +33674,7 @@
       <c r="K385" s="13"/>
       <c r="L385" s="2"/>
     </row>
-    <row r="386" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
         <v>1</v>
       </c>
@@ -33706,7 +33706,7 @@
       <c r="K386" s="13"/>
       <c r="L386" s="2"/>
     </row>
-    <row r="387" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
         <v>1</v>
       </c>
@@ -33738,7 +33738,7 @@
       <c r="K387" s="13"/>
       <c r="L387" s="2"/>
     </row>
-    <row r="388" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
         <v>1</v>
       </c>
@@ -33770,7 +33770,7 @@
       <c r="K388" s="13"/>
       <c r="L388" s="2"/>
     </row>
-    <row r="389" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
         <v>1</v>
       </c>
@@ -33802,7 +33802,7 @@
       <c r="K389" s="13"/>
       <c r="L389" s="2"/>
     </row>
-    <row r="390" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
         <v>1</v>
       </c>
@@ -33834,7 +33834,7 @@
       <c r="K390" s="13"/>
       <c r="L390" s="2"/>
     </row>
-    <row r="391" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
         <v>1</v>
       </c>
@@ -33866,7 +33866,7 @@
       <c r="K391" s="13"/>
       <c r="L391" s="2"/>
     </row>
-    <row r="392" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
         <v>1</v>
       </c>
@@ -33898,7 +33898,7 @@
       <c r="K392" s="13"/>
       <c r="L392" s="2"/>
     </row>
-    <row r="393" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
         <v>1</v>
       </c>
@@ -33930,7 +33930,7 @@
       <c r="K393" s="13"/>
       <c r="L393" s="2"/>
     </row>
-    <row r="394" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>1</v>
       </c>
@@ -33962,7 +33962,7 @@
       <c r="K394" s="13"/>
       <c r="L394" s="2"/>
     </row>
-    <row r="395" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
         <v>1</v>
       </c>
@@ -33994,7 +33994,7 @@
       <c r="K395" s="13"/>
       <c r="L395" s="2"/>
     </row>
-    <row r="396" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
         <v>1</v>
       </c>
@@ -34026,7 +34026,7 @@
       <c r="K396" s="13"/>
       <c r="L396" s="2"/>
     </row>
-    <row r="397" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
         <v>1</v>
       </c>
@@ -34058,7 +34058,7 @@
       <c r="K397" s="13"/>
       <c r="L397" s="2"/>
     </row>
-    <row r="398" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
         <v>1</v>
       </c>
@@ -34090,7 +34090,7 @@
       <c r="K398" s="13"/>
       <c r="L398" s="2"/>
     </row>
-    <row r="399" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
         <v>1</v>
       </c>
@@ -34122,7 +34122,7 @@
       <c r="K399" s="13"/>
       <c r="L399" s="2"/>
     </row>
-    <row r="400" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
         <v>1</v>
       </c>
@@ -34154,7 +34154,7 @@
       <c r="K400" s="13"/>
       <c r="L400" s="2"/>
     </row>
-    <row r="401" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
         <v>1</v>
       </c>
@@ -34186,7 +34186,7 @@
       <c r="K401" s="13"/>
       <c r="L401" s="2"/>
     </row>
-    <row r="402" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
         <v>1</v>
       </c>
@@ -34218,7 +34218,7 @@
       <c r="K402" s="13"/>
       <c r="L402" s="2"/>
     </row>
-    <row r="403" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
         <v>1</v>
       </c>
@@ -34250,7 +34250,7 @@
       <c r="K403" s="13"/>
       <c r="L403" s="2"/>
     </row>
-    <row r="404" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
         <v>1</v>
       </c>
@@ -34282,7 +34282,7 @@
       <c r="K404" s="13"/>
       <c r="L404" s="2"/>
     </row>
-    <row r="405" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
         <v>1</v>
       </c>
@@ -34314,7 +34314,7 @@
       <c r="K405" s="13"/>
       <c r="L405" s="2"/>
     </row>
-    <row r="406" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
         <v>1</v>
       </c>
@@ -34346,7 +34346,7 @@
       <c r="K406" s="13"/>
       <c r="L406" s="2"/>
     </row>
-    <row r="407" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
         <v>1</v>
       </c>
@@ -34378,7 +34378,7 @@
       <c r="K407" s="13"/>
       <c r="L407" s="2"/>
     </row>
-    <row r="408" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
         <v>1</v>
       </c>
@@ -34410,7 +34410,7 @@
       <c r="K408" s="13"/>
       <c r="L408" s="2"/>
     </row>
-    <row r="409" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
         <v>1</v>
       </c>
@@ -34442,7 +34442,7 @@
       <c r="K409" s="13"/>
       <c r="L409" s="2"/>
     </row>
-    <row r="410" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
         <v>1</v>
       </c>
@@ -34474,7 +34474,7 @@
       <c r="K410" s="13"/>
       <c r="L410" s="2"/>
     </row>
-    <row r="411" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="14" t="s">
         <v>1</v>
       </c>
@@ -34512,7 +34512,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="412" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
         <v>1</v>
       </c>
@@ -34544,7 +34544,7 @@
       <c r="K412" s="13"/>
       <c r="L412" s="2"/>
     </row>
-    <row r="413" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
         <v>1</v>
       </c>
@@ -34576,7 +34576,7 @@
       <c r="K413" s="13"/>
       <c r="L413" s="2"/>
     </row>
-    <row r="414" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
         <v>1</v>
       </c>
@@ -34608,7 +34608,7 @@
       <c r="K414" s="13"/>
       <c r="L414" s="2"/>
     </row>
-    <row r="415" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
         <v>1</v>
       </c>
@@ -34640,7 +34640,7 @@
       <c r="K415" s="13"/>
       <c r="L415" s="2"/>
     </row>
-    <row r="416" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
         <v>1</v>
       </c>
@@ -34672,7 +34672,7 @@
       <c r="K416" s="13"/>
       <c r="L416" s="2"/>
     </row>
-    <row r="417" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
         <v>1</v>
       </c>
@@ -34704,7 +34704,7 @@
       <c r="K417" s="13"/>
       <c r="L417" s="2"/>
     </row>
-    <row r="418" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
         <v>1</v>
       </c>
@@ -34736,7 +34736,7 @@
       <c r="K418" s="13"/>
       <c r="L418" s="2"/>
     </row>
-    <row r="419" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
         <v>1</v>
       </c>
@@ -34768,7 +34768,7 @@
       <c r="K419" s="13"/>
       <c r="L419" s="2"/>
     </row>
-    <row r="420" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>1</v>
       </c>
@@ -34800,7 +34800,7 @@
       <c r="K420" s="13"/>
       <c r="L420" s="2"/>
     </row>
-    <row r="421" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
         <v>1</v>
       </c>
@@ -34832,7 +34832,7 @@
       <c r="K421" s="13"/>
       <c r="L421" s="2"/>
     </row>
-    <row r="422" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
         <v>1</v>
       </c>
@@ -34864,7 +34864,7 @@
       <c r="K422" s="13"/>
       <c r="L422" s="2"/>
     </row>
-    <row r="423" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
         <v>1</v>
       </c>
@@ -34896,7 +34896,7 @@
       <c r="K423" s="13"/>
       <c r="L423" s="2"/>
     </row>
-    <row r="424" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
         <v>1</v>
       </c>
@@ -34928,7 +34928,7 @@
       <c r="K424" s="13"/>
       <c r="L424" s="2"/>
     </row>
-    <row r="425" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
         <v>1</v>
       </c>
@@ -34960,7 +34960,7 @@
       <c r="K425" s="13"/>
       <c r="L425" s="2"/>
     </row>
-    <row r="426" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
         <v>1</v>
       </c>
@@ -34992,7 +34992,7 @@
       <c r="K426" s="13"/>
       <c r="L426" s="2"/>
     </row>
-    <row r="427" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
         <v>1</v>
       </c>
@@ -35024,7 +35024,7 @@
       <c r="K427" s="13"/>
       <c r="L427" s="2"/>
     </row>
-    <row r="428" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
         <v>1</v>
       </c>
@@ -35056,7 +35056,7 @@
       <c r="K428" s="13"/>
       <c r="L428" s="2"/>
     </row>
-    <row r="429" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
         <v>1</v>
       </c>
@@ -35088,7 +35088,7 @@
       <c r="K429" s="13"/>
       <c r="L429" s="2"/>
     </row>
-    <row r="430" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
         <v>1</v>
       </c>
@@ -35120,7 +35120,7 @@
       <c r="K430" s="13"/>
       <c r="L430" s="2"/>
     </row>
-    <row r="431" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
         <v>1</v>
       </c>
@@ -35152,7 +35152,7 @@
       <c r="K431" s="13"/>
       <c r="L431" s="2"/>
     </row>
-    <row r="432" spans="1:12" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" s="9" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
         <v>1</v>
       </c>
@@ -35184,7 +35184,7 @@
       <c r="K432" s="13"/>
       <c r="L432" s="2"/>
     </row>
-    <row r="433" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
         <v>1</v>
       </c>
@@ -35216,7 +35216,7 @@
       <c r="K433" s="13"/>
       <c r="L433" s="2"/>
     </row>
-    <row r="434" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
         <v>1</v>
       </c>
@@ -35248,7 +35248,7 @@
       <c r="K434" s="13"/>
       <c r="L434" s="2"/>
     </row>
-    <row r="435" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
         <v>1</v>
       </c>
@@ -35280,7 +35280,7 @@
       <c r="K435" s="13"/>
       <c r="L435" s="2"/>
     </row>
-    <row r="436" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
         <v>1</v>
       </c>
@@ -35312,7 +35312,7 @@
       <c r="K436" s="13"/>
       <c r="L436" s="2"/>
     </row>
-    <row r="437" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
         <v>1</v>
       </c>
@@ -35344,7 +35344,7 @@
       <c r="K437" s="13"/>
       <c r="L437" s="2"/>
     </row>
-    <row r="438" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
         <v>1</v>
       </c>
@@ -35376,7 +35376,7 @@
       <c r="K438" s="13"/>
       <c r="L438" s="2"/>
     </row>
-    <row r="439" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
         <v>1</v>
       </c>
@@ -35408,7 +35408,7 @@
       <c r="K439" s="13"/>
       <c r="L439" s="2"/>
     </row>
-    <row r="440" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
         <v>1</v>
       </c>
@@ -35440,7 +35440,7 @@
       <c r="K440" s="13"/>
       <c r="L440" s="2"/>
     </row>
-    <row r="441" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
         <v>1</v>
       </c>
@@ -35472,7 +35472,7 @@
       <c r="K441" s="13"/>
       <c r="L441" s="2"/>
     </row>
-    <row r="442" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
         <v>1</v>
       </c>
@@ -35504,7 +35504,7 @@
       <c r="K442" s="13"/>
       <c r="L442" s="2"/>
     </row>
-    <row r="443" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
         <v>1</v>
       </c>
@@ -35536,7 +35536,7 @@
       <c r="K443" s="13"/>
       <c r="L443" s="2"/>
     </row>
-    <row r="444" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
         <v>1</v>
       </c>
@@ -35568,7 +35568,7 @@
       <c r="K444" s="13"/>
       <c r="L444" s="2"/>
     </row>
-    <row r="445" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
         <v>1</v>
       </c>
@@ -35600,7 +35600,7 @@
       <c r="K445" s="13"/>
       <c r="L445" s="2"/>
     </row>
-    <row r="446" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
         <v>1</v>
       </c>
@@ -35632,7 +35632,7 @@
       <c r="K446" s="13"/>
       <c r="L446" s="2"/>
     </row>
-    <row r="447" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
         <v>1</v>
       </c>
@@ -35664,7 +35664,7 @@
       <c r="K447" s="13"/>
       <c r="L447" s="2"/>
     </row>
-    <row r="448" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
         <v>1</v>
       </c>
@@ -35696,7 +35696,7 @@
       <c r="K448" s="13"/>
       <c r="L448" s="2"/>
     </row>
-    <row r="449" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
         <v>1</v>
       </c>
@@ -35728,7 +35728,7 @@
       <c r="K449" s="13"/>
       <c r="L449" s="2"/>
     </row>
-    <row r="450" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
         <v>1</v>
       </c>
@@ -35760,7 +35760,7 @@
       <c r="K450" s="13"/>
       <c r="L450" s="2"/>
     </row>
-    <row r="451" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
         <v>1</v>
       </c>
@@ -35792,7 +35792,7 @@
       <c r="K451" s="13"/>
       <c r="L451" s="2"/>
     </row>
-    <row r="452" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
         <v>1</v>
       </c>
@@ -35824,7 +35824,7 @@
       <c r="K452" s="13"/>
       <c r="L452" s="2"/>
     </row>
-    <row r="453" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
         <v>1</v>
       </c>
@@ -35856,7 +35856,7 @@
       <c r="K453" s="13"/>
       <c r="L453" s="2"/>
     </row>
-    <row r="454" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
         <v>1</v>
       </c>
@@ -35888,7 +35888,7 @@
       <c r="K454" s="13"/>
       <c r="L454" s="2"/>
     </row>
-    <row r="455" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
         <v>1</v>
       </c>
@@ -35920,7 +35920,7 @@
       <c r="K455" s="13"/>
       <c r="L455" s="2"/>
     </row>
-    <row r="456" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
         <v>1</v>
       </c>
@@ -35952,7 +35952,7 @@
       <c r="K456" s="13"/>
       <c r="L456" s="2"/>
     </row>
-    <row r="457" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
         <v>1</v>
       </c>
@@ -35984,7 +35984,7 @@
       <c r="K457" s="13"/>
       <c r="L457" s="2"/>
     </row>
-    <row r="458" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
         <v>1</v>
       </c>
@@ -36016,7 +36016,7 @@
       <c r="K458" s="13"/>
       <c r="L458" s="2"/>
     </row>
-    <row r="459" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
         <v>1</v>
       </c>
@@ -36048,7 +36048,7 @@
       <c r="K459" s="13"/>
       <c r="L459" s="2"/>
     </row>
-    <row r="460" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
         <v>1</v>
       </c>
@@ -36080,7 +36080,7 @@
       <c r="K460" s="13"/>
       <c r="L460" s="2"/>
     </row>
-    <row r="461" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
         <v>1</v>
       </c>
@@ -36112,7 +36112,7 @@
       <c r="K461" s="13"/>
       <c r="L461" s="2"/>
     </row>
-    <row r="462" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
         <v>1</v>
       </c>
@@ -36144,7 +36144,7 @@
       <c r="K462" s="13"/>
       <c r="L462" s="2"/>
     </row>
-    <row r="463" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
         <v>1</v>
       </c>
@@ -36176,7 +36176,7 @@
       <c r="K463" s="13"/>
       <c r="L463" s="2"/>
     </row>
-    <row r="464" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
         <v>1</v>
       </c>
@@ -36208,7 +36208,7 @@
       <c r="K464" s="13"/>
       <c r="L464" s="2"/>
     </row>
-    <row r="465" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
         <v>1</v>
       </c>
@@ -36240,7 +36240,7 @@
       <c r="K465" s="13"/>
       <c r="L465" s="2"/>
     </row>
-    <row r="466" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
         <v>1</v>
       </c>
@@ -36272,7 +36272,7 @@
       <c r="K466" s="13"/>
       <c r="L466" s="2"/>
     </row>
-    <row r="467" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
         <v>1</v>
       </c>
@@ -36304,7 +36304,7 @@
       <c r="K467" s="13"/>
       <c r="L467" s="2"/>
     </row>
-    <row r="468" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
         <v>1</v>
       </c>
@@ -36336,7 +36336,7 @@
       <c r="K468" s="13"/>
       <c r="L468" s="2"/>
     </row>
-    <row r="469" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
         <v>1</v>
       </c>
@@ -36368,7 +36368,7 @@
       <c r="K469" s="13"/>
       <c r="L469" s="2"/>
     </row>
-    <row r="470" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
         <v>1</v>
       </c>
@@ -36400,7 +36400,7 @@
       <c r="K470" s="13"/>
       <c r="L470" s="2"/>
     </row>
-    <row r="471" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
         <v>1</v>
       </c>
@@ -36432,7 +36432,7 @@
       <c r="K471" s="13"/>
       <c r="L471" s="2"/>
     </row>
-    <row r="472" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
         <v>1</v>
       </c>
@@ -36464,7 +36464,7 @@
       <c r="K472" s="13"/>
       <c r="L472" s="2"/>
     </row>
-    <row r="473" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
         <v>1</v>
       </c>
@@ -36496,7 +36496,7 @@
       <c r="K473" s="13"/>
       <c r="L473" s="2"/>
     </row>
-    <row r="474" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
         <v>1</v>
       </c>
@@ -36528,7 +36528,7 @@
       <c r="K474" s="13"/>
       <c r="L474" s="2"/>
     </row>
-    <row r="475" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
         <v>1</v>
       </c>
@@ -36560,7 +36560,7 @@
       <c r="K475" s="13"/>
       <c r="L475" s="2"/>
     </row>
-    <row r="476" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
         <v>1</v>
       </c>
@@ -36592,7 +36592,7 @@
       <c r="K476" s="13"/>
       <c r="L476" s="2"/>
     </row>
-    <row r="477" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
         <v>1</v>
       </c>
@@ -36624,7 +36624,7 @@
       <c r="K477" s="13"/>
       <c r="L477" s="2"/>
     </row>
-    <row r="478" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
         <v>1</v>
       </c>
@@ -36662,7 +36662,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="479" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
         <v>1</v>
       </c>
@@ -36694,7 +36694,7 @@
       <c r="K479" s="13"/>
       <c r="L479" s="2"/>
     </row>
-    <row r="480" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
         <v>1</v>
       </c>
@@ -36726,7 +36726,7 @@
       <c r="K480" s="13"/>
       <c r="L480" s="2"/>
     </row>
-    <row r="481" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
         <v>1</v>
       </c>
@@ -36758,7 +36758,7 @@
       <c r="K481" s="13"/>
       <c r="L481" s="2"/>
     </row>
-    <row r="482" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
         <v>1</v>
       </c>
@@ -36790,7 +36790,7 @@
       <c r="K482" s="13"/>
       <c r="L482" s="2"/>
     </row>
-    <row r="483" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
         <v>1</v>
       </c>
@@ -36822,7 +36822,7 @@
       <c r="K483" s="13"/>
       <c r="L483" s="2"/>
     </row>
-    <row r="484" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
         <v>1</v>
       </c>
@@ -36854,7 +36854,7 @@
       <c r="K484" s="13"/>
       <c r="L484" s="2"/>
     </row>
-    <row r="485" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
         <v>1</v>
       </c>
@@ -36886,7 +36886,7 @@
       <c r="K485" s="13"/>
       <c r="L485" s="2"/>
     </row>
-    <row r="486" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
         <v>1</v>
       </c>
@@ -36918,7 +36918,7 @@
       <c r="K486" s="13"/>
       <c r="L486" s="2"/>
     </row>
-    <row r="487" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
         <v>1</v>
       </c>
@@ -36950,7 +36950,7 @@
       <c r="K487" s="13"/>
       <c r="L487" s="2"/>
     </row>
-    <row r="488" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="14" t="s">
         <v>1</v>
       </c>
@@ -36988,7 +36988,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="489" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
         <v>1</v>
       </c>
@@ -37020,7 +37020,7 @@
       <c r="K489" s="13"/>
       <c r="L489" s="2"/>
     </row>
-    <row r="490" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
         <v>1</v>
       </c>
@@ -37052,7 +37052,7 @@
       <c r="K490" s="13"/>
       <c r="L490" s="2"/>
     </row>
-    <row r="491" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
         <v>1</v>
       </c>
@@ -37084,7 +37084,7 @@
       <c r="K491" s="13"/>
       <c r="L491" s="2"/>
     </row>
-    <row r="492" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
         <v>1</v>
       </c>
@@ -37116,7 +37116,7 @@
       <c r="K492" s="13"/>
       <c r="L492" s="2"/>
     </row>
-    <row r="493" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
         <v>1</v>
       </c>
@@ -37148,7 +37148,7 @@
       <c r="K493" s="13"/>
       <c r="L493" s="2"/>
     </row>
-    <row r="494" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
         <v>1</v>
       </c>
@@ -37180,7 +37180,7 @@
       <c r="K494" s="13"/>
       <c r="L494" s="2"/>
     </row>
-    <row r="495" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
         <v>1</v>
       </c>
@@ -37212,7 +37212,7 @@
       <c r="K495" s="13"/>
       <c r="L495" s="2"/>
     </row>
-    <row r="496" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
         <v>1</v>
       </c>
@@ -37244,7 +37244,7 @@
       <c r="K496" s="13"/>
       <c r="L496" s="2"/>
     </row>
-    <row r="497" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
         <v>1</v>
       </c>
@@ -37276,7 +37276,7 @@
       <c r="K497" s="13"/>
       <c r="L497" s="2"/>
     </row>
-    <row r="498" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
         <v>1</v>
       </c>
@@ -37308,7 +37308,7 @@
       <c r="K498" s="13"/>
       <c r="L498" s="2"/>
     </row>
-    <row r="499" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
         <v>1</v>
       </c>
@@ -37340,7 +37340,7 @@
       <c r="K499" s="13"/>
       <c r="L499" s="2"/>
     </row>
-    <row r="500" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
         <v>1</v>
       </c>
@@ -37372,7 +37372,7 @@
       <c r="K500" s="13"/>
       <c r="L500" s="2"/>
     </row>
-    <row r="501" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
         <v>1</v>
       </c>
@@ -37404,7 +37404,7 @@
       <c r="K501" s="13"/>
       <c r="L501" s="2"/>
     </row>
-    <row r="502" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
         <v>1</v>
       </c>
@@ -37436,7 +37436,7 @@
       <c r="K502" s="13"/>
       <c r="L502" s="2"/>
     </row>
-    <row r="503" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
         <v>1</v>
       </c>
@@ -37468,7 +37468,7 @@
       <c r="K503" s="13"/>
       <c r="L503" s="2"/>
     </row>
-    <row r="504" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
         <v>1</v>
       </c>
@@ -37500,7 +37500,7 @@
       <c r="K504" s="13"/>
       <c r="L504" s="2"/>
     </row>
-    <row r="505" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
         <v>1</v>
       </c>
@@ -37532,7 +37532,7 @@
       <c r="K505" s="13"/>
       <c r="L505" s="2"/>
     </row>
-    <row r="506" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
         <v>1</v>
       </c>
@@ -37564,7 +37564,7 @@
       <c r="K506" s="13"/>
       <c r="L506" s="2"/>
     </row>
-    <row r="507" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
         <v>1</v>
       </c>
@@ -37596,7 +37596,7 @@
       <c r="K507" s="13"/>
       <c r="L507" s="2"/>
     </row>
-    <row r="508" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
         <v>1</v>
       </c>
@@ -37628,7 +37628,7 @@
       <c r="K508" s="13"/>
       <c r="L508" s="2"/>
     </row>
-    <row r="509" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
         <v>1</v>
       </c>
@@ -37660,7 +37660,7 @@
       <c r="K509" s="13"/>
       <c r="L509" s="2"/>
     </row>
-    <row r="510" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
         <v>1</v>
       </c>
@@ -37692,7 +37692,7 @@
       <c r="K510" s="13"/>
       <c r="L510" s="2"/>
     </row>
-    <row r="511" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
         <v>1</v>
       </c>
@@ -37724,7 +37724,7 @@
       <c r="K511" s="13"/>
       <c r="L511" s="2"/>
     </row>
-    <row r="512" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
         <v>1</v>
       </c>
@@ -37756,7 +37756,7 @@
       <c r="K512" s="13"/>
       <c r="L512" s="2"/>
     </row>
-    <row r="513" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
         <v>1</v>
       </c>
@@ -37788,7 +37788,7 @@
       <c r="K513" s="13"/>
       <c r="L513" s="2"/>
     </row>
-    <row r="514" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
         <v>1</v>
       </c>
@@ -37820,7 +37820,7 @@
       <c r="K514" s="13"/>
       <c r="L514" s="2"/>
     </row>
-    <row r="515" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
         <v>1</v>
       </c>
@@ -37852,7 +37852,7 @@
       <c r="K515" s="13"/>
       <c r="L515" s="2"/>
     </row>
-    <row r="516" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
         <v>1</v>
       </c>
@@ -37884,7 +37884,7 @@
       <c r="K516" s="13"/>
       <c r="L516" s="2"/>
     </row>
-    <row r="517" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
         <v>1</v>
       </c>
@@ -37916,7 +37916,7 @@
       <c r="K517" s="13"/>
       <c r="L517" s="2"/>
     </row>
-    <row r="518" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
         <v>1</v>
       </c>
@@ -37948,7 +37948,7 @@
       <c r="K518" s="13"/>
       <c r="L518" s="2"/>
     </row>
-    <row r="519" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="3" t="s">
         <v>1</v>
       </c>
@@ -38012,7 +38012,7 @@
       <c r="K520" s="13"/>
       <c r="L520" s="2"/>
     </row>
-    <row r="521" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
         <v>1</v>
       </c>
@@ -38044,7 +38044,7 @@
       <c r="K521" s="13"/>
       <c r="L521" s="2"/>
     </row>
-    <row r="522" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
         <v>1</v>
       </c>
@@ -38076,7 +38076,7 @@
       <c r="K522" s="13"/>
       <c r="L522" s="2"/>
     </row>
-    <row r="523" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
         <v>1</v>
       </c>
@@ -38108,7 +38108,7 @@
       <c r="K523" s="13"/>
       <c r="L523" s="2"/>
     </row>
-    <row r="524" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
         <v>1</v>
       </c>
@@ -38140,7 +38140,7 @@
       <c r="K524" s="13"/>
       <c r="L524" s="2"/>
     </row>
-    <row r="525" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="3" t="s">
         <v>1</v>
       </c>
@@ -38172,7 +38172,7 @@
       <c r="K525" s="13"/>
       <c r="L525" s="2"/>
     </row>
-    <row r="526" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
         <v>1</v>
       </c>
@@ -38204,7 +38204,7 @@
       <c r="K526" s="13"/>
       <c r="L526" s="2"/>
     </row>
-    <row r="527" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="3" t="s">
         <v>1</v>
       </c>
@@ -38236,7 +38236,7 @@
       <c r="K527" s="13"/>
       <c r="L527" s="2"/>
     </row>
-    <row r="528" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="3" t="s">
         <v>1</v>
       </c>
@@ -38268,7 +38268,7 @@
       <c r="K528" s="13"/>
       <c r="L528" s="2"/>
     </row>
-    <row r="529" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="3" t="s">
         <v>1</v>
       </c>
@@ -38300,7 +38300,7 @@
       <c r="K529" s="13"/>
       <c r="L529" s="2"/>
     </row>
-    <row r="530" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="3" t="s">
         <v>1</v>
       </c>
@@ -38338,7 +38338,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="531" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="3" t="s">
         <v>1</v>
       </c>
@@ -38370,7 +38370,7 @@
       <c r="K531" s="13"/>
       <c r="L531" s="2"/>
     </row>
-    <row r="532" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="3" t="s">
         <v>1</v>
       </c>
@@ -38402,7 +38402,7 @@
       <c r="K532" s="13"/>
       <c r="L532" s="2"/>
     </row>
-    <row r="533" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="3" t="s">
         <v>1</v>
       </c>
@@ -38434,7 +38434,7 @@
       <c r="K533" s="13"/>
       <c r="L533" s="2"/>
     </row>
-    <row r="534" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="3" t="s">
         <v>1</v>
       </c>
@@ -38466,7 +38466,7 @@
       <c r="K534" s="13"/>
       <c r="L534" s="2"/>
     </row>
-    <row r="535" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="3" t="s">
         <v>1</v>
       </c>
@@ -38498,7 +38498,7 @@
       <c r="K535" s="13"/>
       <c r="L535" s="2"/>
     </row>
-    <row r="536" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="3" t="s">
         <v>1</v>
       </c>
@@ -38530,7 +38530,7 @@
       <c r="K536" s="13"/>
       <c r="L536" s="2"/>
     </row>
-    <row r="537" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="3" t="s">
         <v>1</v>
       </c>
@@ -38562,7 +38562,7 @@
       <c r="K537" s="13"/>
       <c r="L537" s="2"/>
     </row>
-    <row r="538" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="3" t="s">
         <v>1</v>
       </c>
@@ -38594,7 +38594,7 @@
       <c r="K538" s="13"/>
       <c r="L538" s="2"/>
     </row>
-    <row r="539" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="3" t="s">
         <v>1</v>
       </c>
@@ -38626,7 +38626,7 @@
       <c r="K539" s="13"/>
       <c r="L539" s="2"/>
     </row>
-    <row r="540" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="3" t="s">
         <v>1</v>
       </c>
@@ -38658,7 +38658,7 @@
       <c r="K540" s="13"/>
       <c r="L540" s="2"/>
     </row>
-    <row r="541" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="3" t="s">
         <v>1</v>
       </c>
@@ -38690,7 +38690,7 @@
       <c r="K541" s="13"/>
       <c r="L541" s="2"/>
     </row>
-    <row r="542" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="3" t="s">
         <v>1</v>
       </c>
@@ -38722,7 +38722,7 @@
       <c r="K542" s="13"/>
       <c r="L542" s="2"/>
     </row>
-    <row r="543" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:12" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="3" t="s">
         <v>1</v>
       </c>
@@ -38754,7 +38754,7 @@
       <c r="K543" s="13"/>
       <c r="L543" s="2"/>
     </row>
-    <row r="544" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="3" t="s">
         <v>1</v>
       </c>
@@ -38786,7 +38786,7 @@
       <c r="K544" s="13"/>
       <c r="L544" s="2"/>
     </row>
-    <row r="545" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="3" t="s">
         <v>1</v>
       </c>
@@ -38818,7 +38818,7 @@
       <c r="K545" s="13"/>
       <c r="L545" s="2"/>
     </row>
-    <row r="546" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="3" t="s">
         <v>1</v>
       </c>
@@ -38850,7 +38850,7 @@
       <c r="K546" s="13"/>
       <c r="L546" s="2"/>
     </row>
-    <row r="547" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="3" t="s">
         <v>1</v>
       </c>
@@ -38882,7 +38882,7 @@
       <c r="K547" s="13"/>
       <c r="L547" s="2"/>
     </row>
-    <row r="548" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="3" t="s">
         <v>1</v>
       </c>
@@ -38914,7 +38914,7 @@
       <c r="K548" s="13"/>
       <c r="L548" s="2"/>
     </row>
-    <row r="549" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="3" t="s">
         <v>1</v>
       </c>
@@ -38946,7 +38946,7 @@
       <c r="K549" s="13"/>
       <c r="L549" s="2"/>
     </row>
-    <row r="550" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="3" t="s">
         <v>1</v>
       </c>
@@ -38978,7 +38978,7 @@
       <c r="K550" s="13"/>
       <c r="L550" s="2"/>
     </row>
-    <row r="551" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
         <v>1</v>
       </c>
@@ -39010,7 +39010,7 @@
       <c r="K551" s="13"/>
       <c r="L551" s="2"/>
     </row>
-    <row r="552" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="3" t="s">
         <v>1</v>
       </c>
@@ -39042,7 +39042,7 @@
       <c r="K552" s="13"/>
       <c r="L552" s="2"/>
     </row>
-    <row r="553" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="3" t="s">
         <v>1</v>
       </c>
@@ -39074,7 +39074,7 @@
       <c r="K553" s="13"/>
       <c r="L553" s="2"/>
     </row>
-    <row r="554" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="3" t="s">
         <v>1</v>
       </c>
@@ -39106,7 +39106,7 @@
       <c r="K554" s="13"/>
       <c r="L554" s="2"/>
     </row>
-    <row r="555" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="3" t="s">
         <v>1</v>
       </c>
@@ -39138,7 +39138,7 @@
       <c r="K555" s="13"/>
       <c r="L555" s="2"/>
     </row>
-    <row r="556" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="3" t="s">
         <v>1</v>
       </c>
@@ -39170,7 +39170,7 @@
       <c r="K556" s="13"/>
       <c r="L556" s="2"/>
     </row>
-    <row r="557" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="3" t="s">
         <v>1</v>
       </c>
@@ -39202,7 +39202,7 @@
       <c r="K557" s="13"/>
       <c r="L557" s="2"/>
     </row>
-    <row r="558" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="3" t="s">
         <v>1</v>
       </c>
@@ -39234,7 +39234,7 @@
       <c r="K558" s="13"/>
       <c r="L558" s="2"/>
     </row>
-    <row r="559" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
         <v>1</v>
       </c>
@@ -39266,7 +39266,7 @@
       <c r="K559" s="13"/>
       <c r="L559" s="2"/>
     </row>
-    <row r="560" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="3" t="s">
         <v>1</v>
       </c>
@@ -39298,7 +39298,7 @@
       <c r="K560" s="13"/>
       <c r="L560" s="2"/>
     </row>
-    <row r="561" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="3" t="s">
         <v>1</v>
       </c>
@@ -39330,7 +39330,7 @@
       <c r="K561" s="13"/>
       <c r="L561" s="2"/>
     </row>
-    <row r="562" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="3" t="s">
         <v>1</v>
       </c>
@@ -39362,7 +39362,7 @@
       <c r="K562" s="13"/>
       <c r="L562" s="2"/>
     </row>
-    <row r="563" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="3" t="s">
         <v>1</v>
       </c>
@@ -39394,7 +39394,7 @@
       <c r="K563" s="13"/>
       <c r="L563" s="2"/>
     </row>
-    <row r="564" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="14" t="s">
         <v>1</v>
       </c>
@@ -39432,7 +39432,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="565" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="3" t="s">
         <v>1</v>
       </c>
@@ -39464,7 +39464,7 @@
       <c r="K565" s="13"/>
       <c r="L565" s="2"/>
     </row>
-    <row r="566" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="3" t="s">
         <v>1</v>
       </c>
@@ -39496,7 +39496,7 @@
       <c r="K566" s="13"/>
       <c r="L566" s="2"/>
     </row>
-    <row r="567" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="3" t="s">
         <v>1</v>
       </c>
@@ -39528,7 +39528,7 @@
       <c r="K567" s="13"/>
       <c r="L567" s="2"/>
     </row>
-    <row r="568" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="3" t="s">
         <v>1</v>
       </c>
@@ -39560,7 +39560,7 @@
       <c r="K568" s="13"/>
       <c r="L568" s="2"/>
     </row>
-    <row r="569" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="3" t="s">
         <v>1</v>
       </c>
@@ -39592,7 +39592,7 @@
       <c r="K569" s="13"/>
       <c r="L569" s="2"/>
     </row>
-    <row r="570" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="3" t="s">
         <v>1</v>
       </c>
@@ -39624,7 +39624,7 @@
       <c r="K570" s="13"/>
       <c r="L570" s="2"/>
     </row>
-    <row r="571" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="3" t="s">
         <v>1</v>
       </c>
@@ -39656,7 +39656,7 @@
       <c r="K571" s="13"/>
       <c r="L571" s="2"/>
     </row>
-    <row r="572" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="3" t="s">
         <v>1</v>
       </c>
@@ -39688,7 +39688,7 @@
       <c r="K572" s="13"/>
       <c r="L572" s="2"/>
     </row>
-    <row r="573" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="3" t="s">
         <v>1</v>
       </c>
@@ -39720,7 +39720,7 @@
       <c r="K573" s="13"/>
       <c r="L573" s="2"/>
     </row>
-    <row r="574" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="3" t="s">
         <v>1</v>
       </c>
@@ -39752,7 +39752,7 @@
       <c r="K574" s="13"/>
       <c r="L574" s="2"/>
     </row>
-    <row r="575" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="3" t="s">
         <v>1</v>
       </c>
@@ -39784,7 +39784,7 @@
       <c r="K575" s="13"/>
       <c r="L575" s="2"/>
     </row>
-    <row r="576" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="14" t="s">
         <v>1</v>
       </c>
@@ -39822,7 +39822,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="577" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="14" t="s">
         <v>1</v>
       </c>
@@ -39861,7 +39861,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L577" xr:uid="{01C662C1-44E7-4D45-92FE-121B8423D47A}"/>
+  <autoFilter ref="A1:L577" xr:uid="{01C662C1-44E7-4D45-92FE-121B8423D47A}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="BLOCK DIVISION ARRANGEMENT"/>
+        <filter val="EMERGENCY STOP SYSTEM, BLOCK DIAGRAM"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="A2:C581 A582:A1000">
     <cfRule type="expression" dxfId="17" priority="115" stopIfTrue="1">
       <formula>$I2="Revisar"</formula>
@@ -39970,19 +39977,19 @@
   <sheetData>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>1259</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="C2" s="40" t="s">
         <v>1260</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>1261</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>93</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="F2" s="43" t="s">
         <v>92</v>
@@ -39991,19 +39998,19 @@
         <v>5</v>
       </c>
       <c r="H2" s="45" t="s">
+        <v>1262</v>
+      </c>
+      <c r="I2" s="42" t="s">
         <v>1263</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="J2" s="46" t="s">
         <v>1264</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="K2" s="47" t="s">
         <v>1265</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="L2" s="45" t="s">
         <v>1266</v>
-      </c>
-      <c r="L2" s="45" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -40527,7 +40534,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B14" s="32">
         <v>576</v>
@@ -40578,7 +40585,7 @@
       <c r="H15" s="49"/>
       <c r="I15" s="49"/>
       <c r="K15" s="40" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L15" s="34">
         <f>L14</f>
@@ -40587,18 +40594,18 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B16" s="32" t="s">
         <v>1249</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>1250</v>
       </c>
       <c r="C16" s="50"/>
       <c r="G16" s="58" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H16" s="59"/>
       <c r="K16" s="51" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="L16" s="52">
         <f>L15*5.76</f>
@@ -40614,10 +40621,10 @@
         <v>978.99515624999992</v>
       </c>
       <c r="G17" s="37" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H17" s="38" t="s">
         <v>1252</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -40630,15 +40637,15 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G19" s="32" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H19" s="32" t="s">
         <v>1255</v>
-      </c>
-      <c r="H19" s="32" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F20" s="32" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G20" s="34">
         <f>G21*4</f>
@@ -40652,7 +40659,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F21" s="32" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G21" s="34">
         <v>69500000</v>
@@ -40664,32 +40671,32 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="60" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B22" s="59"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
       <c r="B23" s="48" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="55"/>
       <c r="B24" s="48" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
       <c r="B25" s="48" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="57"/>
       <c r="B26" s="48" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/I-LD-4880.00-9311-000-CZ1-001_R0.xlsx
+++ b/Docs/I-LD-4880.00-9311-000-CZ1-001_R0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.laranjo\Documents\GED_PROFISSIONAL\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99464396-6DB7-433E-851F-071C9FDCFD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC51C9B2-AEC5-4EA5-B59C-53C867E72A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="21840" windowHeight="13020" xr2:uid="{01B28657-6C71-492A-81A2-30F08031C7A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{01B28657-6C71-492A-81A2-30F08031C7A1}"/>
   </bookViews>
   <sheets>
     <sheet name="LDP" sheetId="1" r:id="rId1"/>
@@ -4854,13 +4854,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C662C1-44E7-4D45-92FE-121B8423D47A}">
-  <sheetPr codeName="Planilha4" filterMode="1">
+  <sheetPr codeName="Planilha4">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:XET577"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C586" sqref="C586"/>
+      <selection activeCell="E583" sqref="E583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4916,7 +4916,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4948,7 +4948,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -4980,7 +4980,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="22"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -5012,7 +5012,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -5044,7 +5044,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="22"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -5076,7 +5076,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -5108,7 +5108,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="22"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -5140,7 +5140,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="22"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
@@ -5172,7 +5172,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="22"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -5204,7 +5204,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="22"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -5236,7 +5236,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="22"/>
     </row>
-    <row r="12" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
@@ -5268,7 +5268,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="22"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -5300,7 +5300,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="22"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
@@ -5332,7 +5332,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="22"/>
     </row>
-    <row r="15" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -5364,7 +5364,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -5396,7 +5396,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="22"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
@@ -5428,7 +5428,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="22"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
@@ -5460,7 +5460,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="22"/>
     </row>
-    <row r="19" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
@@ -5492,7 +5492,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="22"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
@@ -5524,7 +5524,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
@@ -5556,7 +5556,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
@@ -5588,7 +5588,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
@@ -5620,7 +5620,7 @@
       <c r="K23" s="6"/>
       <c r="L23" s="22"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
@@ -5652,7 +5652,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="22"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>1</v>
       </c>
@@ -5684,7 +5684,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>1</v>
       </c>
@@ -5716,7 +5716,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="22"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>1</v>
       </c>
@@ -5748,7 +5748,7 @@
       <c r="K27" s="6"/>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>1</v>
       </c>
@@ -5780,7 +5780,7 @@
       <c r="K28" s="6"/>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>1</v>
       </c>
@@ -5812,7 +5812,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>1</v>
       </c>
@@ -5844,7 +5844,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>1</v>
       </c>
@@ -5876,7 +5876,7 @@
       <c r="K31" s="6"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>1</v>
       </c>
@@ -5908,7 +5908,7 @@
       <c r="K32" s="6"/>
       <c r="L32" s="22"/>
     </row>
-    <row r="33" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>1</v>
       </c>
@@ -5940,7 +5940,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="22"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>1</v>
       </c>
@@ -5972,7 +5972,7 @@
       <c r="K34" s="6"/>
       <c r="L34" s="22"/>
     </row>
-    <row r="35" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>1</v>
       </c>
@@ -6004,7 +6004,7 @@
       <c r="K35" s="6"/>
       <c r="L35" s="22"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>1</v>
       </c>
@@ -6036,7 +6036,7 @@
       <c r="K36" s="6"/>
       <c r="L36" s="22"/>
     </row>
-    <row r="37" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>1</v>
       </c>
@@ -6068,7 +6068,7 @@
       <c r="K37" s="6"/>
       <c r="L37" s="22"/>
     </row>
-    <row r="38" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
@@ -6100,7 +6100,7 @@
       <c r="K38" s="6"/>
       <c r="L38" s="22"/>
     </row>
-    <row r="39" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>1</v>
       </c>
@@ -6132,7 +6132,7 @@
       <c r="K39" s="6"/>
       <c r="L39" s="22"/>
     </row>
-    <row r="40" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>1</v>
       </c>
@@ -6164,7 +6164,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="22"/>
     </row>
-    <row r="41" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
@@ -6196,7 +6196,7 @@
       <c r="K41" s="6"/>
       <c r="L41" s="22"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>1</v>
       </c>
@@ -6228,7 +6228,7 @@
       <c r="K42" s="6"/>
       <c r="L42" s="22"/>
     </row>
-    <row r="43" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>1</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>1</v>
       </c>
@@ -6298,7 +6298,7 @@
       <c r="K44" s="13"/>
       <c r="L44" s="22"/>
     </row>
-    <row r="45" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>1</v>
       </c>
@@ -6330,7 +6330,7 @@
       <c r="K45" s="13"/>
       <c r="L45" s="22"/>
     </row>
-    <row r="46" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>1</v>
       </c>
@@ -6362,7 +6362,7 @@
       <c r="K46" s="13"/>
       <c r="L46" s="22"/>
     </row>
-    <row r="47" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>1</v>
       </c>
@@ -6394,7 +6394,7 @@
       <c r="K47" s="13"/>
       <c r="L47" s="22"/>
     </row>
-    <row r="48" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>1</v>
       </c>
@@ -6426,7 +6426,7 @@
       <c r="K48" s="13"/>
       <c r="L48" s="22"/>
     </row>
-    <row r="49" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>1</v>
       </c>
@@ -6458,7 +6458,7 @@
       <c r="K49" s="13"/>
       <c r="L49" s="22"/>
     </row>
-    <row r="50" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>1</v>
       </c>
@@ -6490,7 +6490,7 @@
       <c r="K50" s="13"/>
       <c r="L50" s="22"/>
     </row>
-    <row r="51" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>1</v>
       </c>
@@ -6522,7 +6522,7 @@
       <c r="K51" s="13"/>
       <c r="L51" s="22"/>
     </row>
-    <row r="52" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>1</v>
       </c>
@@ -6554,7 +6554,7 @@
       <c r="K52" s="13"/>
       <c r="L52" s="22"/>
     </row>
-    <row r="53" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>1</v>
       </c>
@@ -6586,7 +6586,7 @@
       <c r="K53" s="13"/>
       <c r="L53" s="22"/>
     </row>
-    <row r="54" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>1</v>
       </c>
@@ -6618,7 +6618,7 @@
       <c r="K54" s="13"/>
       <c r="L54" s="22"/>
     </row>
-    <row r="55" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>1</v>
       </c>
@@ -6650,7 +6650,7 @@
       <c r="K55" s="13"/>
       <c r="L55" s="22"/>
     </row>
-    <row r="56" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>1</v>
       </c>
@@ -6682,7 +6682,7 @@
       <c r="K56" s="13"/>
       <c r="L56" s="22"/>
     </row>
-    <row r="57" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>1</v>
       </c>
@@ -6714,7 +6714,7 @@
       <c r="K57" s="13"/>
       <c r="L57" s="22"/>
     </row>
-    <row r="58" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>1</v>
       </c>
@@ -6746,7 +6746,7 @@
       <c r="K58" s="13"/>
       <c r="L58" s="22"/>
     </row>
-    <row r="59" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>1</v>
       </c>
@@ -6778,7 +6778,7 @@
       <c r="K59" s="13"/>
       <c r="L59" s="22"/>
     </row>
-    <row r="60" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>1</v>
       </c>
@@ -6810,7 +6810,7 @@
       <c r="K60" s="13"/>
       <c r="L60" s="22"/>
     </row>
-    <row r="61" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>1</v>
       </c>
@@ -6842,7 +6842,7 @@
       <c r="K61" s="13"/>
       <c r="L61" s="22"/>
     </row>
-    <row r="62" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>1</v>
       </c>
@@ -6874,7 +6874,7 @@
       <c r="K62" s="13"/>
       <c r="L62" s="22"/>
     </row>
-    <row r="63" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>1</v>
       </c>
@@ -6906,7 +6906,7 @@
       <c r="K63" s="13"/>
       <c r="L63" s="22"/>
     </row>
-    <row r="64" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>1</v>
       </c>
@@ -6938,7 +6938,7 @@
       <c r="K64" s="13"/>
       <c r="L64" s="22"/>
     </row>
-    <row r="65" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>1</v>
       </c>
@@ -6970,7 +6970,7 @@
       <c r="K65" s="13"/>
       <c r="L65" s="22"/>
     </row>
-    <row r="66" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>1</v>
       </c>
@@ -7002,7 +7002,7 @@
       <c r="K66" s="13"/>
       <c r="L66" s="22"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>1</v>
       </c>
@@ -7034,7 +7034,7 @@
       <c r="K67" s="13"/>
       <c r="L67" s="22"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>1</v>
       </c>
@@ -7066,7 +7066,7 @@
       <c r="K68" s="13"/>
       <c r="L68" s="22"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>1</v>
       </c>
@@ -7098,7 +7098,7 @@
       <c r="K69" s="13"/>
       <c r="L69" s="22"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>1</v>
       </c>
@@ -7130,7 +7130,7 @@
       <c r="K70" s="13"/>
       <c r="L70" s="22"/>
     </row>
-    <row r="71" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>1</v>
       </c>
@@ -7162,7 +7162,7 @@
       <c r="K71" s="13"/>
       <c r="L71" s="22"/>
     </row>
-    <row r="72" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>1</v>
       </c>
@@ -7194,7 +7194,7 @@
       <c r="K72" s="13"/>
       <c r="L72" s="22"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>1</v>
       </c>
@@ -7226,7 +7226,7 @@
       <c r="K73" s="13"/>
       <c r="L73" s="22"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>1</v>
       </c>
@@ -7258,7 +7258,7 @@
       <c r="K74" s="13"/>
       <c r="L74" s="22"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>1</v>
       </c>
@@ -7290,7 +7290,7 @@
       <c r="K75" s="13"/>
       <c r="L75" s="22"/>
     </row>
-    <row r="76" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>1</v>
       </c>
@@ -7322,7 +7322,7 @@
       <c r="K76" s="13"/>
       <c r="L76" s="22"/>
     </row>
-    <row r="77" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>1</v>
       </c>
@@ -7354,7 +7354,7 @@
       <c r="K77" s="13"/>
       <c r="L77" s="22"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>1</v>
       </c>
@@ -7386,7 +7386,7 @@
       <c r="K78" s="13"/>
       <c r="L78" s="22"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>1</v>
       </c>
@@ -7418,7 +7418,7 @@
       <c r="K79" s="13"/>
       <c r="L79" s="22"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>1</v>
       </c>
@@ -7450,7 +7450,7 @@
       <c r="K80" s="13"/>
       <c r="L80" s="22"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>1</v>
       </c>
@@ -7482,7 +7482,7 @@
       <c r="K81" s="13"/>
       <c r="L81" s="22"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>1</v>
       </c>
@@ -7514,7 +7514,7 @@
       <c r="K82" s="13"/>
       <c r="L82" s="22"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>1</v>
       </c>
@@ -7546,7 +7546,7 @@
       <c r="K83" s="13"/>
       <c r="L83" s="22"/>
     </row>
-    <row r="84" spans="1:12" s="9" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>1</v>
       </c>
@@ -7578,7 +7578,7 @@
       <c r="K84" s="13"/>
       <c r="L84" s="22"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>1</v>
       </c>
@@ -7610,7 +7610,7 @@
       <c r="K85" s="13"/>
       <c r="L85" s="22"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>1</v>
       </c>
@@ -7642,7 +7642,7 @@
       <c r="K86" s="13"/>
       <c r="L86" s="22"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>1</v>
       </c>
@@ -7674,7 +7674,7 @@
       <c r="K87" s="13"/>
       <c r="L87" s="22"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>1</v>
       </c>
@@ -7706,7 +7706,7 @@
       <c r="K88" s="13"/>
       <c r="L88" s="22"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>1</v>
       </c>
@@ -7738,7 +7738,7 @@
       <c r="K89" s="13"/>
       <c r="L89" s="22"/>
     </row>
-    <row r="90" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>1</v>
       </c>
@@ -7770,7 +7770,7 @@
       <c r="K90" s="13"/>
       <c r="L90" s="22"/>
     </row>
-    <row r="91" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>1</v>
       </c>
@@ -7802,7 +7802,7 @@
       <c r="K91" s="13"/>
       <c r="L91" s="22"/>
     </row>
-    <row r="92" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>1</v>
       </c>
@@ -7834,7 +7834,7 @@
       <c r="K92" s="13"/>
       <c r="L92" s="22"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>1</v>
       </c>
@@ -7866,7 +7866,7 @@
       <c r="K93" s="13"/>
       <c r="L93" s="22"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>1</v>
       </c>
@@ -7898,7 +7898,7 @@
       <c r="K94" s="13"/>
       <c r="L94" s="22"/>
     </row>
-    <row r="95" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>1</v>
       </c>
@@ -7930,7 +7930,7 @@
       <c r="K95" s="13"/>
       <c r="L95" s="22"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>1</v>
       </c>
@@ -7962,7 +7962,7 @@
       <c r="K96" s="13"/>
       <c r="L96" s="22"/>
     </row>
-    <row r="97" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>1</v>
       </c>
@@ -7994,7 +7994,7 @@
       <c r="K97" s="13"/>
       <c r="L97" s="22"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>1</v>
       </c>
@@ -8026,7 +8026,7 @@
       <c r="K98" s="13"/>
       <c r="L98" s="22"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>1</v>
       </c>
@@ -8058,7 +8058,7 @@
       <c r="K99" s="13"/>
       <c r="L99" s="22"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>1</v>
       </c>
@@ -8090,7 +8090,7 @@
       <c r="K100" s="13"/>
       <c r="L100" s="22"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>1</v>
       </c>
@@ -8122,7 +8122,7 @@
       <c r="K101" s="13"/>
       <c r="L101" s="22"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>1</v>
       </c>
@@ -8154,7 +8154,7 @@
       <c r="K102" s="13"/>
       <c r="L102" s="22"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>1</v>
       </c>
@@ -8186,7 +8186,7 @@
       <c r="K103" s="13"/>
       <c r="L103" s="22"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>1</v>
       </c>
@@ -8218,7 +8218,7 @@
       <c r="K104" s="13"/>
       <c r="L104" s="22"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>1</v>
       </c>
@@ -8250,7 +8250,7 @@
       <c r="K105" s="13"/>
       <c r="L105" s="22"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>1</v>
       </c>
@@ -8282,7 +8282,7 @@
       <c r="K106" s="13"/>
       <c r="L106" s="22"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>1</v>
       </c>
@@ -8314,7 +8314,7 @@
       <c r="K107" s="13"/>
       <c r="L107" s="22"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>1</v>
       </c>
@@ -8346,7 +8346,7 @@
       <c r="K108" s="13"/>
       <c r="L108" s="22"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>1</v>
       </c>
@@ -8378,7 +8378,7 @@
       <c r="K109" s="13"/>
       <c r="L109" s="22"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>1</v>
       </c>
@@ -8410,7 +8410,7 @@
       <c r="K110" s="13"/>
       <c r="L110" s="22"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>1</v>
       </c>
@@ -8442,7 +8442,7 @@
       <c r="K111" s="13"/>
       <c r="L111" s="22"/>
     </row>
-    <row r="112" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>1</v>
       </c>
@@ -8474,7 +8474,7 @@
       <c r="K112" s="13"/>
       <c r="L112" s="22"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>1</v>
       </c>
@@ -8506,7 +8506,7 @@
       <c r="K113" s="13"/>
       <c r="L113" s="22"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>1</v>
       </c>
@@ -8538,7 +8538,7 @@
       <c r="K114" s="13"/>
       <c r="L114" s="22"/>
     </row>
-    <row r="115" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>1</v>
       </c>
@@ -8570,7 +8570,7 @@
       <c r="K115" s="13"/>
       <c r="L115" s="22"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>1</v>
       </c>
@@ -8602,7 +8602,7 @@
       <c r="K116" s="13"/>
       <c r="L116" s="22"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>1</v>
       </c>
@@ -8634,7 +8634,7 @@
       <c r="K117" s="13"/>
       <c r="L117" s="22"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>1</v>
       </c>
@@ -8666,7 +8666,7 @@
       <c r="K118" s="13"/>
       <c r="L118" s="22"/>
     </row>
-    <row r="119" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>1</v>
       </c>
@@ -8698,7 +8698,7 @@
       <c r="K119" s="13"/>
       <c r="L119" s="22"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>1</v>
       </c>
@@ -8730,7 +8730,7 @@
       <c r="K120" s="13"/>
       <c r="L120" s="22"/>
     </row>
-    <row r="121" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>1</v>
       </c>
@@ -8762,7 +8762,7 @@
       <c r="K121" s="13"/>
       <c r="L121" s="22"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>1</v>
       </c>
@@ -8794,7 +8794,7 @@
       <c r="K122" s="13"/>
       <c r="L122" s="22"/>
     </row>
-    <row r="123" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>1</v>
       </c>
@@ -8826,7 +8826,7 @@
       <c r="K123" s="13"/>
       <c r="L123" s="22"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>1</v>
       </c>
@@ -8858,7 +8858,7 @@
       <c r="K124" s="13"/>
       <c r="L124" s="22"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>1</v>
       </c>
@@ -8890,7 +8890,7 @@
       <c r="K125" s="13"/>
       <c r="L125" s="22"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>1</v>
       </c>
@@ -8922,7 +8922,7 @@
       <c r="K126" s="13"/>
       <c r="L126" s="22"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>1</v>
       </c>
@@ -8954,7 +8954,7 @@
       <c r="K127" s="13"/>
       <c r="L127" s="22"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>1</v>
       </c>
@@ -8986,7 +8986,7 @@
       <c r="K128" s="13"/>
       <c r="L128" s="22"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>1</v>
       </c>
@@ -9018,7 +9018,7 @@
       <c r="K129" s="13"/>
       <c r="L129" s="22"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>1</v>
       </c>
@@ -9050,7 +9050,7 @@
       <c r="K130" s="13"/>
       <c r="L130" s="22"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>1</v>
       </c>
@@ -9082,7 +9082,7 @@
       <c r="K131" s="13"/>
       <c r="L131" s="22"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>1</v>
       </c>
@@ -9114,7 +9114,7 @@
       <c r="K132" s="13"/>
       <c r="L132" s="22"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>1</v>
       </c>
@@ -9146,7 +9146,7 @@
       <c r="K133" s="13"/>
       <c r="L133" s="22"/>
     </row>
-    <row r="134" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>1</v>
       </c>
@@ -9178,7 +9178,7 @@
       <c r="K134" s="13"/>
       <c r="L134" s="22"/>
     </row>
-    <row r="135" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>1</v>
       </c>
@@ -9210,7 +9210,7 @@
       <c r="K135" s="13"/>
       <c r="L135" s="22"/>
     </row>
-    <row r="136" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>1</v>
       </c>
@@ -9242,7 +9242,7 @@
       <c r="K136" s="13"/>
       <c r="L136" s="22"/>
     </row>
-    <row r="137" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>1</v>
       </c>
@@ -9274,7 +9274,7 @@
       <c r="K137" s="13"/>
       <c r="L137" s="22"/>
     </row>
-    <row r="138" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>1</v>
       </c>
@@ -9306,7 +9306,7 @@
       <c r="K138" s="13"/>
       <c r="L138" s="22"/>
     </row>
-    <row r="139" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>1</v>
       </c>
@@ -9338,7 +9338,7 @@
       <c r="K139" s="13"/>
       <c r="L139" s="22"/>
     </row>
-    <row r="140" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>1</v>
       </c>
@@ -9370,7 +9370,7 @@
       <c r="K140" s="13"/>
       <c r="L140" s="22"/>
     </row>
-    <row r="141" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>1</v>
       </c>
@@ -9402,7 +9402,7 @@
       <c r="K141" s="13"/>
       <c r="L141" s="22"/>
     </row>
-    <row r="142" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>1</v>
       </c>
@@ -9434,7 +9434,7 @@
       <c r="K142" s="13"/>
       <c r="L142" s="22"/>
     </row>
-    <row r="143" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>1</v>
       </c>
@@ -9466,7 +9466,7 @@
       <c r="K143" s="13"/>
       <c r="L143" s="22"/>
     </row>
-    <row r="144" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>1</v>
       </c>
@@ -9498,7 +9498,7 @@
       <c r="K144" s="13"/>
       <c r="L144" s="22"/>
     </row>
-    <row r="145" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>1</v>
       </c>
@@ -9530,7 +9530,7 @@
       <c r="K145" s="13"/>
       <c r="L145" s="22"/>
     </row>
-    <row r="146" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>1</v>
       </c>
@@ -9562,7 +9562,7 @@
       <c r="K146" s="13"/>
       <c r="L146" s="22"/>
     </row>
-    <row r="147" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>1</v>
       </c>
@@ -9594,7 +9594,7 @@
       <c r="K147" s="13"/>
       <c r="L147" s="22"/>
     </row>
-    <row r="148" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>1</v>
       </c>
@@ -9626,7 +9626,7 @@
       <c r="K148" s="13"/>
       <c r="L148" s="22"/>
     </row>
-    <row r="149" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>1</v>
       </c>
@@ -9658,7 +9658,7 @@
       <c r="K149" s="13"/>
       <c r="L149" s="22"/>
     </row>
-    <row r="150" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>1</v>
       </c>
@@ -9690,7 +9690,7 @@
       <c r="K150" s="13"/>
       <c r="L150" s="22"/>
     </row>
-    <row r="151" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>1</v>
       </c>
@@ -9722,7 +9722,7 @@
       <c r="K151" s="13"/>
       <c r="L151" s="22"/>
     </row>
-    <row r="152" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>1</v>
       </c>
@@ -9754,7 +9754,7 @@
       <c r="K152" s="13"/>
       <c r="L152" s="22"/>
     </row>
-    <row r="153" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>1</v>
       </c>
@@ -9786,7 +9786,7 @@
       <c r="K153" s="13"/>
       <c r="L153" s="22"/>
     </row>
-    <row r="154" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>1</v>
       </c>
@@ -9818,7 +9818,7 @@
       <c r="K154" s="13"/>
       <c r="L154" s="22"/>
     </row>
-    <row r="155" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>1</v>
       </c>
@@ -9850,7 +9850,7 @@
       <c r="K155" s="13"/>
       <c r="L155" s="22"/>
     </row>
-    <row r="156" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>1</v>
       </c>
@@ -9882,7 +9882,7 @@
       <c r="K156" s="13"/>
       <c r="L156" s="22"/>
     </row>
-    <row r="157" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>1</v>
       </c>
@@ -9914,7 +9914,7 @@
       <c r="K157" s="13"/>
       <c r="L157" s="22"/>
     </row>
-    <row r="158" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>1</v>
       </c>
@@ -9946,7 +9946,7 @@
       <c r="K158" s="13"/>
       <c r="L158" s="22"/>
     </row>
-    <row r="159" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>1</v>
       </c>
@@ -9978,7 +9978,7 @@
       <c r="K159" s="13"/>
       <c r="L159" s="22"/>
     </row>
-    <row r="160" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>1</v>
       </c>
@@ -10010,7 +10010,7 @@
       <c r="K160" s="13"/>
       <c r="L160" s="22"/>
     </row>
-    <row r="161" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>1</v>
       </c>
@@ -10042,7 +10042,7 @@
       <c r="K161" s="13"/>
       <c r="L161" s="22"/>
     </row>
-    <row r="162" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>1</v>
       </c>
@@ -10074,7 +10074,7 @@
       <c r="K162" s="13"/>
       <c r="L162" s="22"/>
     </row>
-    <row r="163" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>1</v>
       </c>
@@ -10106,7 +10106,7 @@
       <c r="K163" s="13"/>
       <c r="L163" s="22"/>
     </row>
-    <row r="164" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>1</v>
       </c>
@@ -10138,7 +10138,7 @@
       <c r="K164" s="13"/>
       <c r="L164" s="22"/>
     </row>
-    <row r="165" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>1</v>
       </c>
@@ -10170,7 +10170,7 @@
       <c r="K165" s="13"/>
       <c r="L165" s="22"/>
     </row>
-    <row r="166" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>1</v>
       </c>
@@ -10202,7 +10202,7 @@
       <c r="K166" s="13"/>
       <c r="L166" s="22"/>
     </row>
-    <row r="167" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>1</v>
       </c>
@@ -10234,7 +10234,7 @@
       <c r="K167" s="13"/>
       <c r="L167" s="22"/>
     </row>
-    <row r="168" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>1</v>
       </c>
@@ -10266,7 +10266,7 @@
       <c r="K168" s="13"/>
       <c r="L168" s="22"/>
     </row>
-    <row r="169" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>1</v>
       </c>
@@ -10298,7 +10298,7 @@
       <c r="K169" s="13"/>
       <c r="L169" s="22"/>
     </row>
-    <row r="170" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>1</v>
       </c>
@@ -10330,7 +10330,7 @@
       <c r="K170" s="13"/>
       <c r="L170" s="22"/>
     </row>
-    <row r="171" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>1</v>
       </c>
@@ -10362,7 +10362,7 @@
       <c r="K171" s="13"/>
       <c r="L171" s="22"/>
     </row>
-    <row r="172" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>1</v>
       </c>
@@ -10394,7 +10394,7 @@
       <c r="K172" s="13"/>
       <c r="L172" s="22"/>
     </row>
-    <row r="173" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>1</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>1</v>
       </c>
@@ -10496,7 +10496,7 @@
       <c r="K175" s="13"/>
       <c r="L175" s="2"/>
     </row>
-    <row r="176" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>1</v>
       </c>
@@ -10528,7 +10528,7 @@
       <c r="K176" s="13"/>
       <c r="L176" s="2"/>
     </row>
-    <row r="177" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>1</v>
       </c>
@@ -10560,7 +10560,7 @@
       <c r="K177" s="13"/>
       <c r="L177" s="2"/>
     </row>
-    <row r="178" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>1</v>
       </c>
@@ -10592,7 +10592,7 @@
       <c r="K178" s="13"/>
       <c r="L178" s="2"/>
     </row>
-    <row r="179" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>1</v>
       </c>
@@ -10624,7 +10624,7 @@
       <c r="K179" s="13"/>
       <c r="L179" s="2"/>
     </row>
-    <row r="180" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>1</v>
       </c>
@@ -10656,7 +10656,7 @@
       <c r="K180" s="13"/>
       <c r="L180" s="2"/>
     </row>
-    <row r="181" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>1</v>
       </c>
@@ -10688,7 +10688,7 @@
       <c r="K181" s="13"/>
       <c r="L181" s="2"/>
     </row>
-    <row r="182" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>1</v>
       </c>
@@ -10720,7 +10720,7 @@
       <c r="K182" s="13"/>
       <c r="L182" s="2"/>
     </row>
-    <row r="183" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>1</v>
       </c>
@@ -10752,7 +10752,7 @@
       <c r="K183" s="13"/>
       <c r="L183" s="2"/>
     </row>
-    <row r="184" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>1</v>
       </c>
@@ -10784,7 +10784,7 @@
       <c r="K184" s="13"/>
       <c r="L184" s="2"/>
     </row>
-    <row r="185" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>1</v>
       </c>
@@ -10816,7 +10816,7 @@
       <c r="K185" s="13"/>
       <c r="L185" s="2"/>
     </row>
-    <row r="186" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>1</v>
       </c>
@@ -10848,7 +10848,7 @@
       <c r="K186" s="13"/>
       <c r="L186" s="2"/>
     </row>
-    <row r="187" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>1</v>
       </c>
@@ -10880,7 +10880,7 @@
       <c r="K187" s="13"/>
       <c r="L187" s="2"/>
     </row>
-    <row r="188" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>1</v>
       </c>
@@ -10912,7 +10912,7 @@
       <c r="K188" s="13"/>
       <c r="L188" s="2"/>
     </row>
-    <row r="189" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>1</v>
       </c>
@@ -10944,7 +10944,7 @@
       <c r="K189" s="13"/>
       <c r="L189" s="2"/>
     </row>
-    <row r="190" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>1</v>
       </c>
@@ -10976,7 +10976,7 @@
       <c r="K190" s="13"/>
       <c r="L190" s="2"/>
     </row>
-    <row r="191" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>1</v>
       </c>
@@ -11008,7 +11008,7 @@
       <c r="K191" s="13"/>
       <c r="L191" s="2"/>
     </row>
-    <row r="192" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>1</v>
       </c>
@@ -11040,7 +11040,7 @@
       <c r="K192" s="13"/>
       <c r="L192" s="2"/>
     </row>
-    <row r="193" spans="1:16374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>1</v>
       </c>
@@ -11072,7 +11072,7 @@
       <c r="K193" s="13"/>
       <c r="L193" s="2"/>
     </row>
-    <row r="194" spans="1:16374" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16374" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="21" t="s">
         <v>1</v>
       </c>
@@ -27466,7 +27466,7 @@
       <c r="XES194" s="17"/>
       <c r="XET194" s="18"/>
     </row>
-    <row r="195" spans="1:16374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>1</v>
       </c>
@@ -27498,7 +27498,7 @@
       <c r="K195" s="13"/>
       <c r="L195" s="2"/>
     </row>
-    <row r="196" spans="1:16374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>1</v>
       </c>
@@ -27530,7 +27530,7 @@
       <c r="K196" s="13"/>
       <c r="L196" s="2"/>
     </row>
-    <row r="197" spans="1:16374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>1</v>
       </c>
@@ -27562,7 +27562,7 @@
       <c r="K197" s="13"/>
       <c r="L197" s="2"/>
     </row>
-    <row r="198" spans="1:16374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>1</v>
       </c>
@@ -27594,7 +27594,7 @@
       <c r="K198" s="13"/>
       <c r="L198" s="2"/>
     </row>
-    <row r="199" spans="1:16374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>1</v>
       </c>
@@ -27626,7 +27626,7 @@
       <c r="K199" s="13"/>
       <c r="L199" s="2"/>
     </row>
-    <row r="200" spans="1:16374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>1</v>
       </c>
@@ -27658,7 +27658,7 @@
       <c r="K200" s="13"/>
       <c r="L200" s="2"/>
     </row>
-    <row r="201" spans="1:16374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>1</v>
       </c>
@@ -27690,7 +27690,7 @@
       <c r="K201" s="13"/>
       <c r="L201" s="2"/>
     </row>
-    <row r="202" spans="1:16374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>1</v>
       </c>
@@ -27722,7 +27722,7 @@
       <c r="K202" s="13"/>
       <c r="L202" s="2"/>
     </row>
-    <row r="203" spans="1:16374" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16374" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>1</v>
       </c>
@@ -27754,7 +27754,7 @@
       <c r="K203" s="13"/>
       <c r="L203" s="2"/>
     </row>
-    <row r="204" spans="1:16374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>1</v>
       </c>
@@ -27786,7 +27786,7 @@
       <c r="K204" s="13"/>
       <c r="L204" s="2"/>
     </row>
-    <row r="205" spans="1:16374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>1</v>
       </c>
@@ -27818,7 +27818,7 @@
       <c r="K205" s="13"/>
       <c r="L205" s="2"/>
     </row>
-    <row r="206" spans="1:16374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>1</v>
       </c>
@@ -27850,7 +27850,7 @@
       <c r="K206" s="13"/>
       <c r="L206" s="2"/>
     </row>
-    <row r="207" spans="1:16374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>1</v>
       </c>
@@ -27882,7 +27882,7 @@
       <c r="K207" s="13"/>
       <c r="L207" s="2"/>
     </row>
-    <row r="208" spans="1:16374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>1</v>
       </c>
@@ -27914,7 +27914,7 @@
       <c r="K208" s="13"/>
       <c r="L208" s="2"/>
     </row>
-    <row r="209" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>1</v>
       </c>
@@ -27946,7 +27946,7 @@
       <c r="K209" s="13"/>
       <c r="L209" s="2"/>
     </row>
-    <row r="210" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>1</v>
       </c>
@@ -27978,7 +27978,7 @@
       <c r="K210" s="13"/>
       <c r="L210" s="2"/>
     </row>
-    <row r="211" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>1</v>
       </c>
@@ -28010,7 +28010,7 @@
       <c r="K211" s="13"/>
       <c r="L211" s="2"/>
     </row>
-    <row r="212" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>1</v>
       </c>
@@ -28042,7 +28042,7 @@
       <c r="K212" s="13"/>
       <c r="L212" s="2"/>
     </row>
-    <row r="213" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>1</v>
       </c>
@@ -28074,7 +28074,7 @@
       <c r="K213" s="13"/>
       <c r="L213" s="2"/>
     </row>
-    <row r="214" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>1</v>
       </c>
@@ -28106,7 +28106,7 @@
       <c r="K214" s="13"/>
       <c r="L214" s="2"/>
     </row>
-    <row r="215" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>1</v>
       </c>
@@ -28138,7 +28138,7 @@
       <c r="K215" s="13"/>
       <c r="L215" s="2"/>
     </row>
-    <row r="216" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>1</v>
       </c>
@@ -28170,7 +28170,7 @@
       <c r="K216" s="13"/>
       <c r="L216" s="2"/>
     </row>
-    <row r="217" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>1</v>
       </c>
@@ -28202,7 +28202,7 @@
       <c r="K217" s="13"/>
       <c r="L217" s="2"/>
     </row>
-    <row r="218" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>1</v>
       </c>
@@ -28234,7 +28234,7 @@
       <c r="K218" s="13"/>
       <c r="L218" s="2"/>
     </row>
-    <row r="219" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>1</v>
       </c>
@@ -28266,7 +28266,7 @@
       <c r="K219" s="13"/>
       <c r="L219" s="2"/>
     </row>
-    <row r="220" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="14" t="s">
         <v>1</v>
       </c>
@@ -28304,7 +28304,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>1</v>
       </c>
@@ -28336,7 +28336,7 @@
       <c r="K221" s="13"/>
       <c r="L221" s="2"/>
     </row>
-    <row r="222" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>1</v>
       </c>
@@ -28368,7 +28368,7 @@
       <c r="K222" s="13"/>
       <c r="L222" s="2"/>
     </row>
-    <row r="223" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>1</v>
       </c>
@@ -28400,7 +28400,7 @@
       <c r="K223" s="13"/>
       <c r="L223" s="2"/>
     </row>
-    <row r="224" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>1</v>
       </c>
@@ -28432,7 +28432,7 @@
       <c r="K224" s="13"/>
       <c r="L224" s="2"/>
     </row>
-    <row r="225" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>1</v>
       </c>
@@ -28464,7 +28464,7 @@
       <c r="K225" s="13"/>
       <c r="L225" s="2"/>
     </row>
-    <row r="226" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>1</v>
       </c>
@@ -28496,7 +28496,7 @@
       <c r="K226" s="13"/>
       <c r="L226" s="2"/>
     </row>
-    <row r="227" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>1</v>
       </c>
@@ -28528,7 +28528,7 @@
       <c r="K227" s="13"/>
       <c r="L227" s="2"/>
     </row>
-    <row r="228" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>1</v>
       </c>
@@ -28566,7 +28566,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>1</v>
       </c>
@@ -28598,7 +28598,7 @@
       <c r="K229" s="13"/>
       <c r="L229" s="2"/>
     </row>
-    <row r="230" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>1</v>
       </c>
@@ -28630,7 +28630,7 @@
       <c r="K230" s="13"/>
       <c r="L230" s="2"/>
     </row>
-    <row r="231" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>1</v>
       </c>
@@ -28662,7 +28662,7 @@
       <c r="K231" s="13"/>
       <c r="L231" s="2"/>
     </row>
-    <row r="232" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>1</v>
       </c>
@@ -28694,7 +28694,7 @@
       <c r="K232" s="13"/>
       <c r="L232" s="2"/>
     </row>
-    <row r="233" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>1</v>
       </c>
@@ -28726,7 +28726,7 @@
       <c r="K233" s="13"/>
       <c r="L233" s="2"/>
     </row>
-    <row r="234" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>1</v>
       </c>
@@ -28758,7 +28758,7 @@
       <c r="K234" s="13"/>
       <c r="L234" s="2"/>
     </row>
-    <row r="235" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>1</v>
       </c>
@@ -28790,7 +28790,7 @@
       <c r="K235" s="13"/>
       <c r="L235" s="2"/>
     </row>
-    <row r="236" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>1</v>
       </c>
@@ -28822,7 +28822,7 @@
       <c r="K236" s="13"/>
       <c r="L236" s="2"/>
     </row>
-    <row r="237" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>1</v>
       </c>
@@ -28854,7 +28854,7 @@
       <c r="K237" s="13"/>
       <c r="L237" s="2"/>
     </row>
-    <row r="238" spans="1:12" s="9" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>1</v>
       </c>
@@ -28886,7 +28886,7 @@
       <c r="K238" s="13"/>
       <c r="L238" s="2"/>
     </row>
-    <row r="239" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>1</v>
       </c>
@@ -28918,7 +28918,7 @@
       <c r="K239" s="13"/>
       <c r="L239" s="2"/>
     </row>
-    <row r="240" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>1</v>
       </c>
@@ -28950,7 +28950,7 @@
       <c r="K240" s="13"/>
       <c r="L240" s="2"/>
     </row>
-    <row r="241" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>1</v>
       </c>
@@ -28982,7 +28982,7 @@
       <c r="K241" s="13"/>
       <c r="L241" s="2"/>
     </row>
-    <row r="242" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>1</v>
       </c>
@@ -29014,7 +29014,7 @@
       <c r="K242" s="13"/>
       <c r="L242" s="2"/>
     </row>
-    <row r="243" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="14" t="s">
         <v>1</v>
       </c>
@@ -29052,7 +29052,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="244" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>1</v>
       </c>
@@ -29084,7 +29084,7 @@
       <c r="K244" s="13"/>
       <c r="L244" s="2"/>
     </row>
-    <row r="245" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>1</v>
       </c>
@@ -29116,7 +29116,7 @@
       <c r="K245" s="13"/>
       <c r="L245" s="2"/>
     </row>
-    <row r="246" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>1</v>
       </c>
@@ -29148,7 +29148,7 @@
       <c r="K246" s="13"/>
       <c r="L246" s="2"/>
     </row>
-    <row r="247" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>1</v>
       </c>
@@ -29180,7 +29180,7 @@
       <c r="K247" s="13"/>
       <c r="L247" s="2"/>
     </row>
-    <row r="248" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>1</v>
       </c>
@@ -29212,7 +29212,7 @@
       <c r="K248" s="13"/>
       <c r="L248" s="2"/>
     </row>
-    <row r="249" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>1</v>
       </c>
@@ -29244,7 +29244,7 @@
       <c r="K249" s="13"/>
       <c r="L249" s="2"/>
     </row>
-    <row r="250" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>1</v>
       </c>
@@ -29276,7 +29276,7 @@
       <c r="K250" s="13"/>
       <c r="L250" s="2"/>
     </row>
-    <row r="251" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>1</v>
       </c>
@@ -29314,7 +29314,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="252" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>1</v>
       </c>
@@ -29346,7 +29346,7 @@
       <c r="K252" s="13"/>
       <c r="L252" s="2"/>
     </row>
-    <row r="253" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>1</v>
       </c>
@@ -29378,7 +29378,7 @@
       <c r="K253" s="13"/>
       <c r="L253" s="2"/>
     </row>
-    <row r="254" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>1</v>
       </c>
@@ -29410,7 +29410,7 @@
       <c r="K254" s="13"/>
       <c r="L254" s="2"/>
     </row>
-    <row r="255" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>1</v>
       </c>
@@ -29442,7 +29442,7 @@
       <c r="K255" s="13"/>
       <c r="L255" s="2"/>
     </row>
-    <row r="256" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="14" t="s">
         <v>1</v>
       </c>
@@ -29480,7 +29480,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>1</v>
       </c>
@@ -29512,7 +29512,7 @@
       <c r="K257" s="13"/>
       <c r="L257" s="2"/>
     </row>
-    <row r="258" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>1</v>
       </c>
@@ -29544,7 +29544,7 @@
       <c r="K258" s="13"/>
       <c r="L258" s="2"/>
     </row>
-    <row r="259" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>1</v>
       </c>
@@ -29576,7 +29576,7 @@
       <c r="K259" s="13"/>
       <c r="L259" s="2"/>
     </row>
-    <row r="260" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>1</v>
       </c>
@@ -29608,7 +29608,7 @@
       <c r="K260" s="13"/>
       <c r="L260" s="2"/>
     </row>
-    <row r="261" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>1</v>
       </c>
@@ -29640,7 +29640,7 @@
       <c r="K261" s="13"/>
       <c r="L261" s="2"/>
     </row>
-    <row r="262" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>1</v>
       </c>
@@ -29672,7 +29672,7 @@
       <c r="K262" s="13"/>
       <c r="L262" s="2"/>
     </row>
-    <row r="263" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>1</v>
       </c>
@@ -29704,7 +29704,7 @@
       <c r="K263" s="13"/>
       <c r="L263" s="2"/>
     </row>
-    <row r="264" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>1</v>
       </c>
@@ -29736,7 +29736,7 @@
       <c r="K264" s="13"/>
       <c r="L264" s="2"/>
     </row>
-    <row r="265" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>1</v>
       </c>
@@ -29768,7 +29768,7 @@
       <c r="K265" s="13"/>
       <c r="L265" s="2"/>
     </row>
-    <row r="266" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>1</v>
       </c>
@@ -29800,7 +29800,7 @@
       <c r="K266" s="13"/>
       <c r="L266" s="2"/>
     </row>
-    <row r="267" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>1</v>
       </c>
@@ -29832,7 +29832,7 @@
       <c r="K267" s="13"/>
       <c r="L267" s="2"/>
     </row>
-    <row r="268" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>1</v>
       </c>
@@ -29864,7 +29864,7 @@
       <c r="K268" s="13"/>
       <c r="L268" s="2"/>
     </row>
-    <row r="269" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>1</v>
       </c>
@@ -29896,7 +29896,7 @@
       <c r="K269" s="13"/>
       <c r="L269" s="2"/>
     </row>
-    <row r="270" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>1</v>
       </c>
@@ -29928,7 +29928,7 @@
       <c r="K270" s="13"/>
       <c r="L270" s="2"/>
     </row>
-    <row r="271" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>1</v>
       </c>
@@ -29960,7 +29960,7 @@
       <c r="K271" s="13"/>
       <c r="L271" s="2"/>
     </row>
-    <row r="272" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>1</v>
       </c>
@@ -29992,7 +29992,7 @@
       <c r="K272" s="13"/>
       <c r="L272" s="2"/>
     </row>
-    <row r="273" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>1</v>
       </c>
@@ -30024,7 +30024,7 @@
       <c r="K273" s="13"/>
       <c r="L273" s="2"/>
     </row>
-    <row r="274" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>1</v>
       </c>
@@ -30056,7 +30056,7 @@
       <c r="K274" s="13"/>
       <c r="L274" s="2"/>
     </row>
-    <row r="275" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>1</v>
       </c>
@@ -30088,7 +30088,7 @@
       <c r="K275" s="13"/>
       <c r="L275" s="2"/>
     </row>
-    <row r="276" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>1</v>
       </c>
@@ -30120,7 +30120,7 @@
       <c r="K276" s="13"/>
       <c r="L276" s="2"/>
     </row>
-    <row r="277" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>1</v>
       </c>
@@ -30152,7 +30152,7 @@
       <c r="K277" s="13"/>
       <c r="L277" s="2"/>
     </row>
-    <row r="278" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>1</v>
       </c>
@@ -30184,7 +30184,7 @@
       <c r="K278" s="13"/>
       <c r="L278" s="2"/>
     </row>
-    <row r="279" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>1</v>
       </c>
@@ -30216,7 +30216,7 @@
       <c r="K279" s="13"/>
       <c r="L279" s="2"/>
     </row>
-    <row r="280" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>1</v>
       </c>
@@ -30248,7 +30248,7 @@
       <c r="K280" s="13"/>
       <c r="L280" s="2"/>
     </row>
-    <row r="281" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>1</v>
       </c>
@@ -30280,7 +30280,7 @@
       <c r="K281" s="13"/>
       <c r="L281" s="2"/>
     </row>
-    <row r="282" spans="1:12" s="9" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>1</v>
       </c>
@@ -30312,7 +30312,7 @@
       <c r="K282" s="13"/>
       <c r="L282" s="2"/>
     </row>
-    <row r="283" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>1</v>
       </c>
@@ -30344,7 +30344,7 @@
       <c r="K283" s="13"/>
       <c r="L283" s="2"/>
     </row>
-    <row r="284" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="19" t="s">
         <v>1</v>
       </c>
@@ -30382,7 +30382,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="285" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>1</v>
       </c>
@@ -30414,7 +30414,7 @@
       <c r="K285" s="13"/>
       <c r="L285" s="2"/>
     </row>
-    <row r="286" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>1</v>
       </c>
@@ -30446,7 +30446,7 @@
       <c r="K286" s="13"/>
       <c r="L286" s="2"/>
     </row>
-    <row r="287" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>1</v>
       </c>
@@ -30478,7 +30478,7 @@
       <c r="K287" s="13"/>
       <c r="L287" s="2"/>
     </row>
-    <row r="288" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>1</v>
       </c>
@@ -30510,7 +30510,7 @@
       <c r="K288" s="13"/>
       <c r="L288" s="2"/>
     </row>
-    <row r="289" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="14" t="s">
         <v>1</v>
       </c>
@@ -30548,7 +30548,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="290" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>1</v>
       </c>
@@ -30580,7 +30580,7 @@
       <c r="K290" s="13"/>
       <c r="L290" s="2"/>
     </row>
-    <row r="291" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="14" t="s">
         <v>1</v>
       </c>
@@ -30618,7 +30618,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="292" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>1</v>
       </c>
@@ -30650,7 +30650,7 @@
       <c r="K292" s="13"/>
       <c r="L292" s="2"/>
     </row>
-    <row r="293" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>1</v>
       </c>
@@ -30688,7 +30688,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>1</v>
       </c>
@@ -30720,7 +30720,7 @@
       <c r="K294" s="13"/>
       <c r="L294" s="2"/>
     </row>
-    <row r="295" spans="1:12" s="9" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>1</v>
       </c>
@@ -30752,7 +30752,7 @@
       <c r="K295" s="13"/>
       <c r="L295" s="2"/>
     </row>
-    <row r="296" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>1</v>
       </c>
@@ -30784,7 +30784,7 @@
       <c r="K296" s="13"/>
       <c r="L296" s="2"/>
     </row>
-    <row r="297" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>1</v>
       </c>
@@ -30816,7 +30816,7 @@
       <c r="K297" s="13"/>
       <c r="L297" s="2"/>
     </row>
-    <row r="298" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>1</v>
       </c>
@@ -30848,7 +30848,7 @@
       <c r="K298" s="13"/>
       <c r="L298" s="2"/>
     </row>
-    <row r="299" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>1</v>
       </c>
@@ -30880,7 +30880,7 @@
       <c r="K299" s="13"/>
       <c r="L299" s="2"/>
     </row>
-    <row r="300" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>1</v>
       </c>
@@ -30912,7 +30912,7 @@
       <c r="K300" s="13"/>
       <c r="L300" s="2"/>
     </row>
-    <row r="301" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>1</v>
       </c>
@@ -30944,7 +30944,7 @@
       <c r="K301" s="13"/>
       <c r="L301" s="2"/>
     </row>
-    <row r="302" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>1</v>
       </c>
@@ -30976,7 +30976,7 @@
       <c r="K302" s="13"/>
       <c r="L302" s="2"/>
     </row>
-    <row r="303" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>1</v>
       </c>
@@ -31008,7 +31008,7 @@
       <c r="K303" s="13"/>
       <c r="L303" s="2"/>
     </row>
-    <row r="304" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>1</v>
       </c>
@@ -31040,7 +31040,7 @@
       <c r="K304" s="13"/>
       <c r="L304" s="2"/>
     </row>
-    <row r="305" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>1</v>
       </c>
@@ -31072,7 +31072,7 @@
       <c r="K305" s="13"/>
       <c r="L305" s="2"/>
     </row>
-    <row r="306" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>1</v>
       </c>
@@ -31104,7 +31104,7 @@
       <c r="K306" s="13"/>
       <c r="L306" s="2"/>
     </row>
-    <row r="307" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>1</v>
       </c>
@@ -31142,7 +31142,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="308" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>1</v>
       </c>
@@ -31174,7 +31174,7 @@
       <c r="K308" s="13"/>
       <c r="L308" s="2"/>
     </row>
-    <row r="309" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>1</v>
       </c>
@@ -31206,7 +31206,7 @@
       <c r="K309" s="13"/>
       <c r="L309" s="2"/>
     </row>
-    <row r="310" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>1</v>
       </c>
@@ -31238,7 +31238,7 @@
       <c r="K310" s="13"/>
       <c r="L310" s="2"/>
     </row>
-    <row r="311" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>1</v>
       </c>
@@ -31270,7 +31270,7 @@
       <c r="K311" s="13"/>
       <c r="L311" s="2"/>
     </row>
-    <row r="312" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>1</v>
       </c>
@@ -31302,7 +31302,7 @@
       <c r="K312" s="13"/>
       <c r="L312" s="2"/>
     </row>
-    <row r="313" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>1</v>
       </c>
@@ -31334,7 +31334,7 @@
       <c r="K313" s="13"/>
       <c r="L313" s="2"/>
     </row>
-    <row r="314" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>1</v>
       </c>
@@ -31366,7 +31366,7 @@
       <c r="K314" s="13"/>
       <c r="L314" s="2"/>
     </row>
-    <row r="315" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>1</v>
       </c>
@@ -31398,7 +31398,7 @@
       <c r="K315" s="13"/>
       <c r="L315" s="2"/>
     </row>
-    <row r="316" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>1</v>
       </c>
@@ -31430,7 +31430,7 @@
       <c r="K316" s="13"/>
       <c r="L316" s="2"/>
     </row>
-    <row r="317" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>1</v>
       </c>
@@ -31462,7 +31462,7 @@
       <c r="K317" s="13"/>
       <c r="L317" s="2"/>
     </row>
-    <row r="318" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>1</v>
       </c>
@@ -31494,7 +31494,7 @@
       <c r="K318" s="13"/>
       <c r="L318" s="2"/>
     </row>
-    <row r="319" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>1</v>
       </c>
@@ -31526,7 +31526,7 @@
       <c r="K319" s="13"/>
       <c r="L319" s="2"/>
     </row>
-    <row r="320" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="19" t="s">
         <v>1</v>
       </c>
@@ -31564,7 +31564,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="321" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="19" t="s">
         <v>1</v>
       </c>
@@ -31602,7 +31602,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="322" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>1</v>
       </c>
@@ -31634,7 +31634,7 @@
       <c r="K322" s="13"/>
       <c r="L322" s="2"/>
     </row>
-    <row r="323" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>1</v>
       </c>
@@ -31666,7 +31666,7 @@
       <c r="K323" s="13"/>
       <c r="L323" s="2"/>
     </row>
-    <row r="324" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>1</v>
       </c>
@@ -31698,7 +31698,7 @@
       <c r="K324" s="13"/>
       <c r="L324" s="2"/>
     </row>
-    <row r="325" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>1</v>
       </c>
@@ -31730,7 +31730,7 @@
       <c r="K325" s="13"/>
       <c r="L325" s="2"/>
     </row>
-    <row r="326" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>1</v>
       </c>
@@ -31762,7 +31762,7 @@
       <c r="K326" s="13"/>
       <c r="L326" s="2"/>
     </row>
-    <row r="327" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>1</v>
       </c>
@@ -31794,7 +31794,7 @@
       <c r="K327" s="13"/>
       <c r="L327" s="2"/>
     </row>
-    <row r="328" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>1</v>
       </c>
@@ -31826,7 +31826,7 @@
       <c r="K328" s="13"/>
       <c r="L328" s="2"/>
     </row>
-    <row r="329" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>1</v>
       </c>
@@ -31858,7 +31858,7 @@
       <c r="K329" s="13"/>
       <c r="L329" s="2"/>
     </row>
-    <row r="330" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>1</v>
       </c>
@@ -31890,7 +31890,7 @@
       <c r="K330" s="13"/>
       <c r="L330" s="2"/>
     </row>
-    <row r="331" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>1</v>
       </c>
@@ -31922,7 +31922,7 @@
       <c r="K331" s="13"/>
       <c r="L331" s="2"/>
     </row>
-    <row r="332" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="19" t="s">
         <v>1</v>
       </c>
@@ -31960,7 +31960,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="333" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>1</v>
       </c>
@@ -31992,7 +31992,7 @@
       <c r="K333" s="13"/>
       <c r="L333" s="2"/>
     </row>
-    <row r="334" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>1</v>
       </c>
@@ -32024,7 +32024,7 @@
       <c r="K334" s="13"/>
       <c r="L334" s="2"/>
     </row>
-    <row r="335" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>1</v>
       </c>
@@ -32056,7 +32056,7 @@
       <c r="K335" s="13"/>
       <c r="L335" s="2"/>
     </row>
-    <row r="336" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>1</v>
       </c>
@@ -32088,7 +32088,7 @@
       <c r="K336" s="13"/>
       <c r="L336" s="2"/>
     </row>
-    <row r="337" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>1</v>
       </c>
@@ -32120,7 +32120,7 @@
       <c r="K337" s="13"/>
       <c r="L337" s="2"/>
     </row>
-    <row r="338" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>1</v>
       </c>
@@ -32152,7 +32152,7 @@
       <c r="K338" s="13"/>
       <c r="L338" s="2"/>
     </row>
-    <row r="339" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>1</v>
       </c>
@@ -32184,7 +32184,7 @@
       <c r="K339" s="13"/>
       <c r="L339" s="2"/>
     </row>
-    <row r="340" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>1</v>
       </c>
@@ -32216,7 +32216,7 @@
       <c r="K340" s="13"/>
       <c r="L340" s="2"/>
     </row>
-    <row r="341" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>1</v>
       </c>
@@ -32248,7 +32248,7 @@
       <c r="K341" s="13"/>
       <c r="L341" s="2"/>
     </row>
-    <row r="342" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>1</v>
       </c>
@@ -32280,7 +32280,7 @@
       <c r="K342" s="13"/>
       <c r="L342" s="2"/>
     </row>
-    <row r="343" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>1</v>
       </c>
@@ -32312,7 +32312,7 @@
       <c r="K343" s="13"/>
       <c r="L343" s="2"/>
     </row>
-    <row r="344" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>1</v>
       </c>
@@ -32344,7 +32344,7 @@
       <c r="K344" s="13"/>
       <c r="L344" s="2"/>
     </row>
-    <row r="345" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>1</v>
       </c>
@@ -32376,7 +32376,7 @@
       <c r="K345" s="13"/>
       <c r="L345" s="2"/>
     </row>
-    <row r="346" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>1</v>
       </c>
@@ -32408,7 +32408,7 @@
       <c r="K346" s="13"/>
       <c r="L346" s="2"/>
     </row>
-    <row r="347" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>1</v>
       </c>
@@ -32440,7 +32440,7 @@
       <c r="K347" s="13"/>
       <c r="L347" s="2"/>
     </row>
-    <row r="348" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>1</v>
       </c>
@@ -32472,7 +32472,7 @@
       <c r="K348" s="13"/>
       <c r="L348" s="2"/>
     </row>
-    <row r="349" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>1</v>
       </c>
@@ -32504,7 +32504,7 @@
       <c r="K349" s="13"/>
       <c r="L349" s="2"/>
     </row>
-    <row r="350" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>1</v>
       </c>
@@ -32536,7 +32536,7 @@
       <c r="K350" s="13"/>
       <c r="L350" s="2"/>
     </row>
-    <row r="351" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>1</v>
       </c>
@@ -32568,7 +32568,7 @@
       <c r="K351" s="13"/>
       <c r="L351" s="2"/>
     </row>
-    <row r="352" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>1</v>
       </c>
@@ -32600,7 +32600,7 @@
       <c r="K352" s="13"/>
       <c r="L352" s="2"/>
     </row>
-    <row r="353" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>1</v>
       </c>
@@ -32632,7 +32632,7 @@
       <c r="K353" s="13"/>
       <c r="L353" s="2"/>
     </row>
-    <row r="354" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>1</v>
       </c>
@@ -32664,7 +32664,7 @@
       <c r="K354" s="13"/>
       <c r="L354" s="2"/>
     </row>
-    <row r="355" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="19" t="s">
         <v>1</v>
       </c>
@@ -32702,7 +32702,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="356" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="19" t="s">
         <v>1</v>
       </c>
@@ -32740,7 +32740,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="357" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>1</v>
       </c>
@@ -32772,7 +32772,7 @@
       <c r="K357" s="13"/>
       <c r="L357" s="2"/>
     </row>
-    <row r="358" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>1</v>
       </c>
@@ -32804,7 +32804,7 @@
       <c r="K358" s="13"/>
       <c r="L358" s="2"/>
     </row>
-    <row r="359" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>1</v>
       </c>
@@ -32836,7 +32836,7 @@
       <c r="K359" s="13"/>
       <c r="L359" s="2"/>
     </row>
-    <row r="360" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>1</v>
       </c>
@@ -32868,7 +32868,7 @@
       <c r="K360" s="13"/>
       <c r="L360" s="2"/>
     </row>
-    <row r="361" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>1</v>
       </c>
@@ -32900,7 +32900,7 @@
       <c r="K361" s="13"/>
       <c r="L361" s="2"/>
     </row>
-    <row r="362" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>1</v>
       </c>
@@ -32932,7 +32932,7 @@
       <c r="K362" s="13"/>
       <c r="L362" s="2"/>
     </row>
-    <row r="363" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>1</v>
       </c>
@@ -32964,7 +32964,7 @@
       <c r="K363" s="13"/>
       <c r="L363" s="2"/>
     </row>
-    <row r="364" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>1</v>
       </c>
@@ -32996,7 +32996,7 @@
       <c r="K364" s="13"/>
       <c r="L364" s="2"/>
     </row>
-    <row r="365" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="19" t="s">
         <v>1</v>
       </c>
@@ -33034,7 +33034,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="366" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>1</v>
       </c>
@@ -33066,7 +33066,7 @@
       <c r="K366" s="13"/>
       <c r="L366" s="2"/>
     </row>
-    <row r="367" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>1</v>
       </c>
@@ -33098,7 +33098,7 @@
       <c r="K367" s="13"/>
       <c r="L367" s="2"/>
     </row>
-    <row r="368" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>1</v>
       </c>
@@ -33130,7 +33130,7 @@
       <c r="K368" s="13"/>
       <c r="L368" s="2"/>
     </row>
-    <row r="369" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
         <v>1</v>
       </c>
@@ -33162,7 +33162,7 @@
       <c r="K369" s="13"/>
       <c r="L369" s="2"/>
     </row>
-    <row r="370" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
         <v>1</v>
       </c>
@@ -33194,7 +33194,7 @@
       <c r="K370" s="13"/>
       <c r="L370" s="2"/>
     </row>
-    <row r="371" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
         <v>1</v>
       </c>
@@ -33226,7 +33226,7 @@
       <c r="K371" s="13"/>
       <c r="L371" s="2"/>
     </row>
-    <row r="372" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
         <v>1</v>
       </c>
@@ -33258,7 +33258,7 @@
       <c r="K372" s="13"/>
       <c r="L372" s="2"/>
     </row>
-    <row r="373" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
         <v>1</v>
       </c>
@@ -33290,7 +33290,7 @@
       <c r="K373" s="13"/>
       <c r="L373" s="2"/>
     </row>
-    <row r="374" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
         <v>1</v>
       </c>
@@ -33322,7 +33322,7 @@
       <c r="K374" s="13"/>
       <c r="L374" s="2"/>
     </row>
-    <row r="375" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
         <v>1</v>
       </c>
@@ -33354,7 +33354,7 @@
       <c r="K375" s="13"/>
       <c r="L375" s="2"/>
     </row>
-    <row r="376" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
         <v>1</v>
       </c>
@@ -33386,7 +33386,7 @@
       <c r="K376" s="13"/>
       <c r="L376" s="2"/>
     </row>
-    <row r="377" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
         <v>1</v>
       </c>
@@ -33418,7 +33418,7 @@
       <c r="K377" s="13"/>
       <c r="L377" s="2"/>
     </row>
-    <row r="378" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
         <v>1</v>
       </c>
@@ -33450,7 +33450,7 @@
       <c r="K378" s="13"/>
       <c r="L378" s="2"/>
     </row>
-    <row r="379" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>1</v>
       </c>
@@ -33482,7 +33482,7 @@
       <c r="K379" s="13"/>
       <c r="L379" s="2"/>
     </row>
-    <row r="380" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
         <v>1</v>
       </c>
@@ -33514,7 +33514,7 @@
       <c r="K380" s="13"/>
       <c r="L380" s="2"/>
     </row>
-    <row r="381" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
         <v>1</v>
       </c>
@@ -33546,7 +33546,7 @@
       <c r="K381" s="13"/>
       <c r="L381" s="2"/>
     </row>
-    <row r="382" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
         <v>1</v>
       </c>
@@ -33578,7 +33578,7 @@
       <c r="K382" s="13"/>
       <c r="L382" s="2"/>
     </row>
-    <row r="383" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
         <v>1</v>
       </c>
@@ -33610,7 +33610,7 @@
       <c r="K383" s="13"/>
       <c r="L383" s="2"/>
     </row>
-    <row r="384" spans="1:12" s="9" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
         <v>1</v>
       </c>
@@ -33642,7 +33642,7 @@
       <c r="K384" s="13"/>
       <c r="L384" s="2"/>
     </row>
-    <row r="385" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
         <v>1</v>
       </c>
@@ -33674,7 +33674,7 @@
       <c r="K385" s="13"/>
       <c r="L385" s="2"/>
     </row>
-    <row r="386" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
         <v>1</v>
       </c>
@@ -33706,7 +33706,7 @@
       <c r="K386" s="13"/>
       <c r="L386" s="2"/>
     </row>
-    <row r="387" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
         <v>1</v>
       </c>
@@ -33738,7 +33738,7 @@
       <c r="K387" s="13"/>
       <c r="L387" s="2"/>
     </row>
-    <row r="388" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
         <v>1</v>
       </c>
@@ -33770,7 +33770,7 @@
       <c r="K388" s="13"/>
       <c r="L388" s="2"/>
     </row>
-    <row r="389" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
         <v>1</v>
       </c>
@@ -33802,7 +33802,7 @@
       <c r="K389" s="13"/>
       <c r="L389" s="2"/>
     </row>
-    <row r="390" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
         <v>1</v>
       </c>
@@ -33834,7 +33834,7 @@
       <c r="K390" s="13"/>
       <c r="L390" s="2"/>
     </row>
-    <row r="391" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
         <v>1</v>
       </c>
@@ -33866,7 +33866,7 @@
       <c r="K391" s="13"/>
       <c r="L391" s="2"/>
     </row>
-    <row r="392" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
         <v>1</v>
       </c>
@@ -33898,7 +33898,7 @@
       <c r="K392" s="13"/>
       <c r="L392" s="2"/>
     </row>
-    <row r="393" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
         <v>1</v>
       </c>
@@ -33930,7 +33930,7 @@
       <c r="K393" s="13"/>
       <c r="L393" s="2"/>
     </row>
-    <row r="394" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>1</v>
       </c>
@@ -33962,7 +33962,7 @@
       <c r="K394" s="13"/>
       <c r="L394" s="2"/>
     </row>
-    <row r="395" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
         <v>1</v>
       </c>
@@ -33994,7 +33994,7 @@
       <c r="K395" s="13"/>
       <c r="L395" s="2"/>
     </row>
-    <row r="396" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
         <v>1</v>
       </c>
@@ -34026,7 +34026,7 @@
       <c r="K396" s="13"/>
       <c r="L396" s="2"/>
     </row>
-    <row r="397" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
         <v>1</v>
       </c>
@@ -34058,7 +34058,7 @@
       <c r="K397" s="13"/>
       <c r="L397" s="2"/>
     </row>
-    <row r="398" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
         <v>1</v>
       </c>
@@ -34090,7 +34090,7 @@
       <c r="K398" s="13"/>
       <c r="L398" s="2"/>
     </row>
-    <row r="399" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
         <v>1</v>
       </c>
@@ -34122,7 +34122,7 @@
       <c r="K399" s="13"/>
       <c r="L399" s="2"/>
     </row>
-    <row r="400" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
         <v>1</v>
       </c>
@@ -34154,7 +34154,7 @@
       <c r="K400" s="13"/>
       <c r="L400" s="2"/>
     </row>
-    <row r="401" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
         <v>1</v>
       </c>
@@ -34186,7 +34186,7 @@
       <c r="K401" s="13"/>
       <c r="L401" s="2"/>
     </row>
-    <row r="402" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
         <v>1</v>
       </c>
@@ -34218,7 +34218,7 @@
       <c r="K402" s="13"/>
       <c r="L402" s="2"/>
     </row>
-    <row r="403" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
         <v>1</v>
       </c>
@@ -34250,7 +34250,7 @@
       <c r="K403" s="13"/>
       <c r="L403" s="2"/>
     </row>
-    <row r="404" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
         <v>1</v>
       </c>
@@ -34282,7 +34282,7 @@
       <c r="K404" s="13"/>
       <c r="L404" s="2"/>
     </row>
-    <row r="405" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
         <v>1</v>
       </c>
@@ -34314,7 +34314,7 @@
       <c r="K405" s="13"/>
       <c r="L405" s="2"/>
     </row>
-    <row r="406" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
         <v>1</v>
       </c>
@@ -34346,7 +34346,7 @@
       <c r="K406" s="13"/>
       <c r="L406" s="2"/>
     </row>
-    <row r="407" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
         <v>1</v>
       </c>
@@ -34378,7 +34378,7 @@
       <c r="K407" s="13"/>
       <c r="L407" s="2"/>
     </row>
-    <row r="408" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
         <v>1</v>
       </c>
@@ -34410,7 +34410,7 @@
       <c r="K408" s="13"/>
       <c r="L408" s="2"/>
     </row>
-    <row r="409" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
         <v>1</v>
       </c>
@@ -34442,7 +34442,7 @@
       <c r="K409" s="13"/>
       <c r="L409" s="2"/>
     </row>
-    <row r="410" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
         <v>1</v>
       </c>
@@ -34474,7 +34474,7 @@
       <c r="K410" s="13"/>
       <c r="L410" s="2"/>
     </row>
-    <row r="411" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="14" t="s">
         <v>1</v>
       </c>
@@ -34512,7 +34512,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="412" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
         <v>1</v>
       </c>
@@ -34544,7 +34544,7 @@
       <c r="K412" s="13"/>
       <c r="L412" s="2"/>
     </row>
-    <row r="413" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
         <v>1</v>
       </c>
@@ -34576,7 +34576,7 @@
       <c r="K413" s="13"/>
       <c r="L413" s="2"/>
     </row>
-    <row r="414" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
         <v>1</v>
       </c>
@@ -34608,7 +34608,7 @@
       <c r="K414" s="13"/>
       <c r="L414" s="2"/>
     </row>
-    <row r="415" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
         <v>1</v>
       </c>
@@ -34640,7 +34640,7 @@
       <c r="K415" s="13"/>
       <c r="L415" s="2"/>
     </row>
-    <row r="416" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
         <v>1</v>
       </c>
@@ -34672,7 +34672,7 @@
       <c r="K416" s="13"/>
       <c r="L416" s="2"/>
     </row>
-    <row r="417" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
         <v>1</v>
       </c>
@@ -34704,7 +34704,7 @@
       <c r="K417" s="13"/>
       <c r="L417" s="2"/>
     </row>
-    <row r="418" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
         <v>1</v>
       </c>
@@ -34736,7 +34736,7 @@
       <c r="K418" s="13"/>
       <c r="L418" s="2"/>
     </row>
-    <row r="419" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
         <v>1</v>
       </c>
@@ -34768,7 +34768,7 @@
       <c r="K419" s="13"/>
       <c r="L419" s="2"/>
     </row>
-    <row r="420" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>1</v>
       </c>
@@ -34800,7 +34800,7 @@
       <c r="K420" s="13"/>
       <c r="L420" s="2"/>
     </row>
-    <row r="421" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
         <v>1</v>
       </c>
@@ -34832,7 +34832,7 @@
       <c r="K421" s="13"/>
       <c r="L421" s="2"/>
     </row>
-    <row r="422" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
         <v>1</v>
       </c>
@@ -34864,7 +34864,7 @@
       <c r="K422" s="13"/>
       <c r="L422" s="2"/>
     </row>
-    <row r="423" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
         <v>1</v>
       </c>
@@ -34896,7 +34896,7 @@
       <c r="K423" s="13"/>
       <c r="L423" s="2"/>
     </row>
-    <row r="424" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
         <v>1</v>
       </c>
@@ -34928,7 +34928,7 @@
       <c r="K424" s="13"/>
       <c r="L424" s="2"/>
     </row>
-    <row r="425" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
         <v>1</v>
       </c>
@@ -34960,7 +34960,7 @@
       <c r="K425" s="13"/>
       <c r="L425" s="2"/>
     </row>
-    <row r="426" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
         <v>1</v>
       </c>
@@ -34992,7 +34992,7 @@
       <c r="K426" s="13"/>
       <c r="L426" s="2"/>
     </row>
-    <row r="427" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
         <v>1</v>
       </c>
@@ -35024,7 +35024,7 @@
       <c r="K427" s="13"/>
       <c r="L427" s="2"/>
     </row>
-    <row r="428" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
         <v>1</v>
       </c>
@@ -35056,7 +35056,7 @@
       <c r="K428" s="13"/>
       <c r="L428" s="2"/>
     </row>
-    <row r="429" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
         <v>1</v>
       </c>
@@ -35088,7 +35088,7 @@
       <c r="K429" s="13"/>
       <c r="L429" s="2"/>
     </row>
-    <row r="430" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
         <v>1</v>
       </c>
@@ -35120,7 +35120,7 @@
       <c r="K430" s="13"/>
       <c r="L430" s="2"/>
     </row>
-    <row r="431" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
         <v>1</v>
       </c>
@@ -35152,7 +35152,7 @@
       <c r="K431" s="13"/>
       <c r="L431" s="2"/>
     </row>
-    <row r="432" spans="1:12" s="9" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
         <v>1</v>
       </c>
@@ -35184,7 +35184,7 @@
       <c r="K432" s="13"/>
       <c r="L432" s="2"/>
     </row>
-    <row r="433" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
         <v>1</v>
       </c>
@@ -35216,7 +35216,7 @@
       <c r="K433" s="13"/>
       <c r="L433" s="2"/>
     </row>
-    <row r="434" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
         <v>1</v>
       </c>
@@ -35248,7 +35248,7 @@
       <c r="K434" s="13"/>
       <c r="L434" s="2"/>
     </row>
-    <row r="435" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
         <v>1</v>
       </c>
@@ -35280,7 +35280,7 @@
       <c r="K435" s="13"/>
       <c r="L435" s="2"/>
     </row>
-    <row r="436" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
         <v>1</v>
       </c>
@@ -35312,7 +35312,7 @@
       <c r="K436" s="13"/>
       <c r="L436" s="2"/>
     </row>
-    <row r="437" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
         <v>1</v>
       </c>
@@ -35344,7 +35344,7 @@
       <c r="K437" s="13"/>
       <c r="L437" s="2"/>
     </row>
-    <row r="438" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
         <v>1</v>
       </c>
@@ -35376,7 +35376,7 @@
       <c r="K438" s="13"/>
       <c r="L438" s="2"/>
     </row>
-    <row r="439" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
         <v>1</v>
       </c>
@@ -35408,7 +35408,7 @@
       <c r="K439" s="13"/>
       <c r="L439" s="2"/>
     </row>
-    <row r="440" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
         <v>1</v>
       </c>
@@ -35440,7 +35440,7 @@
       <c r="K440" s="13"/>
       <c r="L440" s="2"/>
     </row>
-    <row r="441" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
         <v>1</v>
       </c>
@@ -35472,7 +35472,7 @@
       <c r="K441" s="13"/>
       <c r="L441" s="2"/>
     </row>
-    <row r="442" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
         <v>1</v>
       </c>
@@ -35504,7 +35504,7 @@
       <c r="K442" s="13"/>
       <c r="L442" s="2"/>
     </row>
-    <row r="443" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
         <v>1</v>
       </c>
@@ -35536,7 +35536,7 @@
       <c r="K443" s="13"/>
       <c r="L443" s="2"/>
     </row>
-    <row r="444" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
         <v>1</v>
       </c>
@@ -35568,7 +35568,7 @@
       <c r="K444" s="13"/>
       <c r="L444" s="2"/>
     </row>
-    <row r="445" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
         <v>1</v>
       </c>
@@ -35600,7 +35600,7 @@
       <c r="K445" s="13"/>
       <c r="L445" s="2"/>
     </row>
-    <row r="446" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
         <v>1</v>
       </c>
@@ -35632,7 +35632,7 @@
       <c r="K446" s="13"/>
       <c r="L446" s="2"/>
     </row>
-    <row r="447" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
         <v>1</v>
       </c>
@@ -35664,7 +35664,7 @@
       <c r="K447" s="13"/>
       <c r="L447" s="2"/>
     </row>
-    <row r="448" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
         <v>1</v>
       </c>
@@ -35696,7 +35696,7 @@
       <c r="K448" s="13"/>
       <c r="L448" s="2"/>
     </row>
-    <row r="449" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
         <v>1</v>
       </c>
@@ -35728,7 +35728,7 @@
       <c r="K449" s="13"/>
       <c r="L449" s="2"/>
     </row>
-    <row r="450" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
         <v>1</v>
       </c>
@@ -35760,7 +35760,7 @@
       <c r="K450" s="13"/>
       <c r="L450" s="2"/>
     </row>
-    <row r="451" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
         <v>1</v>
       </c>
@@ -35792,7 +35792,7 @@
       <c r="K451" s="13"/>
       <c r="L451" s="2"/>
     </row>
-    <row r="452" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
         <v>1</v>
       </c>
@@ -35824,7 +35824,7 @@
       <c r="K452" s="13"/>
       <c r="L452" s="2"/>
     </row>
-    <row r="453" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
         <v>1</v>
       </c>
@@ -35856,7 +35856,7 @@
       <c r="K453" s="13"/>
       <c r="L453" s="2"/>
     </row>
-    <row r="454" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
         <v>1</v>
       </c>
@@ -35888,7 +35888,7 @@
       <c r="K454" s="13"/>
       <c r="L454" s="2"/>
     </row>
-    <row r="455" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
         <v>1</v>
       </c>
@@ -35920,7 +35920,7 @@
       <c r="K455" s="13"/>
       <c r="L455" s="2"/>
     </row>
-    <row r="456" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
         <v>1</v>
       </c>
@@ -35952,7 +35952,7 @@
       <c r="K456" s="13"/>
       <c r="L456" s="2"/>
     </row>
-    <row r="457" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
         <v>1</v>
       </c>
@@ -35984,7 +35984,7 @@
       <c r="K457" s="13"/>
       <c r="L457" s="2"/>
     </row>
-    <row r="458" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
         <v>1</v>
       </c>
@@ -36016,7 +36016,7 @@
       <c r="K458" s="13"/>
       <c r="L458" s="2"/>
     </row>
-    <row r="459" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
         <v>1</v>
       </c>
@@ -36048,7 +36048,7 @@
       <c r="K459" s="13"/>
       <c r="L459" s="2"/>
     </row>
-    <row r="460" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
         <v>1</v>
       </c>
@@ -36080,7 +36080,7 @@
       <c r="K460" s="13"/>
       <c r="L460" s="2"/>
     </row>
-    <row r="461" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
         <v>1</v>
       </c>
@@ -36112,7 +36112,7 @@
       <c r="K461" s="13"/>
       <c r="L461" s="2"/>
     </row>
-    <row r="462" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
         <v>1</v>
       </c>
@@ -36144,7 +36144,7 @@
       <c r="K462" s="13"/>
       <c r="L462" s="2"/>
     </row>
-    <row r="463" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
         <v>1</v>
       </c>
@@ -36176,7 +36176,7 @@
       <c r="K463" s="13"/>
       <c r="L463" s="2"/>
     </row>
-    <row r="464" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
         <v>1</v>
       </c>
@@ -36208,7 +36208,7 @@
       <c r="K464" s="13"/>
       <c r="L464" s="2"/>
     </row>
-    <row r="465" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
         <v>1</v>
       </c>
@@ -36240,7 +36240,7 @@
       <c r="K465" s="13"/>
       <c r="L465" s="2"/>
     </row>
-    <row r="466" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
         <v>1</v>
       </c>
@@ -36272,7 +36272,7 @@
       <c r="K466" s="13"/>
       <c r="L466" s="2"/>
     </row>
-    <row r="467" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
         <v>1</v>
       </c>
@@ -36304,7 +36304,7 @@
       <c r="K467" s="13"/>
       <c r="L467" s="2"/>
     </row>
-    <row r="468" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
         <v>1</v>
       </c>
@@ -36336,7 +36336,7 @@
       <c r="K468" s="13"/>
       <c r="L468" s="2"/>
     </row>
-    <row r="469" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
         <v>1</v>
       </c>
@@ -36368,7 +36368,7 @@
       <c r="K469" s="13"/>
       <c r="L469" s="2"/>
     </row>
-    <row r="470" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
         <v>1</v>
       </c>
@@ -36400,7 +36400,7 @@
       <c r="K470" s="13"/>
       <c r="L470" s="2"/>
     </row>
-    <row r="471" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
         <v>1</v>
       </c>
@@ -36432,7 +36432,7 @@
       <c r="K471" s="13"/>
       <c r="L471" s="2"/>
     </row>
-    <row r="472" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
         <v>1</v>
       </c>
@@ -36464,7 +36464,7 @@
       <c r="K472" s="13"/>
       <c r="L472" s="2"/>
     </row>
-    <row r="473" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
         <v>1</v>
       </c>
@@ -36496,7 +36496,7 @@
       <c r="K473" s="13"/>
       <c r="L473" s="2"/>
     </row>
-    <row r="474" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
         <v>1</v>
       </c>
@@ -36528,7 +36528,7 @@
       <c r="K474" s="13"/>
       <c r="L474" s="2"/>
     </row>
-    <row r="475" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
         <v>1</v>
       </c>
@@ -36560,7 +36560,7 @@
       <c r="K475" s="13"/>
       <c r="L475" s="2"/>
     </row>
-    <row r="476" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
         <v>1</v>
       </c>
@@ -36592,7 +36592,7 @@
       <c r="K476" s="13"/>
       <c r="L476" s="2"/>
     </row>
-    <row r="477" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
         <v>1</v>
       </c>
@@ -36624,7 +36624,7 @@
       <c r="K477" s="13"/>
       <c r="L477" s="2"/>
     </row>
-    <row r="478" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
         <v>1</v>
       </c>
@@ -36662,7 +36662,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="479" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
         <v>1</v>
       </c>
@@ -36694,7 +36694,7 @@
       <c r="K479" s="13"/>
       <c r="L479" s="2"/>
     </row>
-    <row r="480" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
         <v>1</v>
       </c>
@@ -36726,7 +36726,7 @@
       <c r="K480" s="13"/>
       <c r="L480" s="2"/>
     </row>
-    <row r="481" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
         <v>1</v>
       </c>
@@ -36758,7 +36758,7 @@
       <c r="K481" s="13"/>
       <c r="L481" s="2"/>
     </row>
-    <row r="482" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
         <v>1</v>
       </c>
@@ -36790,7 +36790,7 @@
       <c r="K482" s="13"/>
       <c r="L482" s="2"/>
     </row>
-    <row r="483" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
         <v>1</v>
       </c>
@@ -36822,7 +36822,7 @@
       <c r="K483" s="13"/>
       <c r="L483" s="2"/>
     </row>
-    <row r="484" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
         <v>1</v>
       </c>
@@ -36854,7 +36854,7 @@
       <c r="K484" s="13"/>
       <c r="L484" s="2"/>
     </row>
-    <row r="485" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
         <v>1</v>
       </c>
@@ -36886,7 +36886,7 @@
       <c r="K485" s="13"/>
       <c r="L485" s="2"/>
     </row>
-    <row r="486" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
         <v>1</v>
       </c>
@@ -36918,7 +36918,7 @@
       <c r="K486" s="13"/>
       <c r="L486" s="2"/>
     </row>
-    <row r="487" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
         <v>1</v>
       </c>
@@ -36950,7 +36950,7 @@
       <c r="K487" s="13"/>
       <c r="L487" s="2"/>
     </row>
-    <row r="488" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="14" t="s">
         <v>1</v>
       </c>
@@ -36988,7 +36988,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="489" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
         <v>1</v>
       </c>
@@ -37020,7 +37020,7 @@
       <c r="K489" s="13"/>
       <c r="L489" s="2"/>
     </row>
-    <row r="490" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
         <v>1</v>
       </c>
@@ -37052,7 +37052,7 @@
       <c r="K490" s="13"/>
       <c r="L490" s="2"/>
     </row>
-    <row r="491" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
         <v>1</v>
       </c>
@@ -37084,7 +37084,7 @@
       <c r="K491" s="13"/>
       <c r="L491" s="2"/>
     </row>
-    <row r="492" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
         <v>1</v>
       </c>
@@ -37116,7 +37116,7 @@
       <c r="K492" s="13"/>
       <c r="L492" s="2"/>
     </row>
-    <row r="493" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
         <v>1</v>
       </c>
@@ -37148,7 +37148,7 @@
       <c r="K493" s="13"/>
       <c r="L493" s="2"/>
     </row>
-    <row r="494" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
         <v>1</v>
       </c>
@@ -37180,7 +37180,7 @@
       <c r="K494" s="13"/>
       <c r="L494" s="2"/>
     </row>
-    <row r="495" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
         <v>1</v>
       </c>
@@ -37212,7 +37212,7 @@
       <c r="K495" s="13"/>
       <c r="L495" s="2"/>
     </row>
-    <row r="496" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
         <v>1</v>
       </c>
@@ -37244,7 +37244,7 @@
       <c r="K496" s="13"/>
       <c r="L496" s="2"/>
     </row>
-    <row r="497" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
         <v>1</v>
       </c>
@@ -37276,7 +37276,7 @@
       <c r="K497" s="13"/>
       <c r="L497" s="2"/>
     </row>
-    <row r="498" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
         <v>1</v>
       </c>
@@ -37308,7 +37308,7 @@
       <c r="K498" s="13"/>
       <c r="L498" s="2"/>
     </row>
-    <row r="499" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
         <v>1</v>
       </c>
@@ -37340,7 +37340,7 @@
       <c r="K499" s="13"/>
       <c r="L499" s="2"/>
     </row>
-    <row r="500" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
         <v>1</v>
       </c>
@@ -37372,7 +37372,7 @@
       <c r="K500" s="13"/>
       <c r="L500" s="2"/>
     </row>
-    <row r="501" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
         <v>1</v>
       </c>
@@ -37404,7 +37404,7 @@
       <c r="K501" s="13"/>
       <c r="L501" s="2"/>
     </row>
-    <row r="502" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
         <v>1</v>
       </c>
@@ -37436,7 +37436,7 @@
       <c r="K502" s="13"/>
       <c r="L502" s="2"/>
     </row>
-    <row r="503" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
         <v>1</v>
       </c>
@@ -37468,7 +37468,7 @@
       <c r="K503" s="13"/>
       <c r="L503" s="2"/>
     </row>
-    <row r="504" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
         <v>1</v>
       </c>
@@ -37500,7 +37500,7 @@
       <c r="K504" s="13"/>
       <c r="L504" s="2"/>
     </row>
-    <row r="505" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
         <v>1</v>
       </c>
@@ -37532,7 +37532,7 @@
       <c r="K505" s="13"/>
       <c r="L505" s="2"/>
     </row>
-    <row r="506" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
         <v>1</v>
       </c>
@@ -37564,7 +37564,7 @@
       <c r="K506" s="13"/>
       <c r="L506" s="2"/>
     </row>
-    <row r="507" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
         <v>1</v>
       </c>
@@ -37596,7 +37596,7 @@
       <c r="K507" s="13"/>
       <c r="L507" s="2"/>
     </row>
-    <row r="508" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
         <v>1</v>
       </c>
@@ -37628,7 +37628,7 @@
       <c r="K508" s="13"/>
       <c r="L508" s="2"/>
     </row>
-    <row r="509" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
         <v>1</v>
       </c>
@@ -37660,7 +37660,7 @@
       <c r="K509" s="13"/>
       <c r="L509" s="2"/>
     </row>
-    <row r="510" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
         <v>1</v>
       </c>
@@ -37692,7 +37692,7 @@
       <c r="K510" s="13"/>
       <c r="L510" s="2"/>
     </row>
-    <row r="511" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
         <v>1</v>
       </c>
@@ -37724,7 +37724,7 @@
       <c r="K511" s="13"/>
       <c r="L511" s="2"/>
     </row>
-    <row r="512" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
         <v>1</v>
       </c>
@@ -37756,7 +37756,7 @@
       <c r="K512" s="13"/>
       <c r="L512" s="2"/>
     </row>
-    <row r="513" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
         <v>1</v>
       </c>
@@ -37788,7 +37788,7 @@
       <c r="K513" s="13"/>
       <c r="L513" s="2"/>
     </row>
-    <row r="514" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
         <v>1</v>
       </c>
@@ -37820,7 +37820,7 @@
       <c r="K514" s="13"/>
       <c r="L514" s="2"/>
     </row>
-    <row r="515" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
         <v>1</v>
       </c>
@@ -37852,7 +37852,7 @@
       <c r="K515" s="13"/>
       <c r="L515" s="2"/>
     </row>
-    <row r="516" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
         <v>1</v>
       </c>
@@ -37884,7 +37884,7 @@
       <c r="K516" s="13"/>
       <c r="L516" s="2"/>
     </row>
-    <row r="517" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
         <v>1</v>
       </c>
@@ -37916,7 +37916,7 @@
       <c r="K517" s="13"/>
       <c r="L517" s="2"/>
     </row>
-    <row r="518" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
         <v>1</v>
       </c>
@@ -37948,7 +37948,7 @@
       <c r="K518" s="13"/>
       <c r="L518" s="2"/>
     </row>
-    <row r="519" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="3" t="s">
         <v>1</v>
       </c>
@@ -38012,7 +38012,7 @@
       <c r="K520" s="13"/>
       <c r="L520" s="2"/>
     </row>
-    <row r="521" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
         <v>1</v>
       </c>
@@ -38044,7 +38044,7 @@
       <c r="K521" s="13"/>
       <c r="L521" s="2"/>
     </row>
-    <row r="522" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
         <v>1</v>
       </c>
@@ -38076,7 +38076,7 @@
       <c r="K522" s="13"/>
       <c r="L522" s="2"/>
     </row>
-    <row r="523" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
         <v>1</v>
       </c>
@@ -38108,7 +38108,7 @@
       <c r="K523" s="13"/>
       <c r="L523" s="2"/>
     </row>
-    <row r="524" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
         <v>1</v>
       </c>
@@ -38140,7 +38140,7 @@
       <c r="K524" s="13"/>
       <c r="L524" s="2"/>
     </row>
-    <row r="525" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="3" t="s">
         <v>1</v>
       </c>
@@ -38172,7 +38172,7 @@
       <c r="K525" s="13"/>
       <c r="L525" s="2"/>
     </row>
-    <row r="526" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
         <v>1</v>
       </c>
@@ -38204,7 +38204,7 @@
       <c r="K526" s="13"/>
       <c r="L526" s="2"/>
     </row>
-    <row r="527" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="3" t="s">
         <v>1</v>
       </c>
@@ -38236,7 +38236,7 @@
       <c r="K527" s="13"/>
       <c r="L527" s="2"/>
     </row>
-    <row r="528" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="3" t="s">
         <v>1</v>
       </c>
@@ -38268,7 +38268,7 @@
       <c r="K528" s="13"/>
       <c r="L528" s="2"/>
     </row>
-    <row r="529" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="3" t="s">
         <v>1</v>
       </c>
@@ -38300,7 +38300,7 @@
       <c r="K529" s="13"/>
       <c r="L529" s="2"/>
     </row>
-    <row r="530" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="3" t="s">
         <v>1</v>
       </c>
@@ -38338,7 +38338,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="531" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="3" t="s">
         <v>1</v>
       </c>
@@ -38370,7 +38370,7 @@
       <c r="K531" s="13"/>
       <c r="L531" s="2"/>
     </row>
-    <row r="532" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="3" t="s">
         <v>1</v>
       </c>
@@ -38402,7 +38402,7 @@
       <c r="K532" s="13"/>
       <c r="L532" s="2"/>
     </row>
-    <row r="533" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="3" t="s">
         <v>1</v>
       </c>
@@ -38434,7 +38434,7 @@
       <c r="K533" s="13"/>
       <c r="L533" s="2"/>
     </row>
-    <row r="534" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="3" t="s">
         <v>1</v>
       </c>
@@ -38466,7 +38466,7 @@
       <c r="K534" s="13"/>
       <c r="L534" s="2"/>
     </row>
-    <row r="535" spans="1:12" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="3" t="s">
         <v>1</v>
       </c>
@@ -38498,7 +38498,7 @@
       <c r="K535" s="13"/>
       <c r="L535" s="2"/>
     </row>
-    <row r="536" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="3" t="s">
         <v>1</v>
       </c>
@@ -38530,7 +38530,7 @@
       <c r="K536" s="13"/>
       <c r="L536" s="2"/>
     </row>
-    <row r="537" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="3" t="s">
         <v>1</v>
       </c>
@@ -38562,7 +38562,7 @@
       <c r="K537" s="13"/>
       <c r="L537" s="2"/>
     </row>
-    <row r="538" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="3" t="s">
         <v>1</v>
       </c>
@@ -38594,7 +38594,7 @@
       <c r="K538" s="13"/>
       <c r="L538" s="2"/>
     </row>
-    <row r="539" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="3" t="s">
         <v>1</v>
       </c>
@@ -38626,7 +38626,7 @@
       <c r="K539" s="13"/>
       <c r="L539" s="2"/>
     </row>
-    <row r="540" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="3" t="s">
         <v>1</v>
       </c>
@@ -38658,7 +38658,7 @@
       <c r="K540" s="13"/>
       <c r="L540" s="2"/>
     </row>
-    <row r="541" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="3" t="s">
         <v>1</v>
       </c>
@@ -38690,7 +38690,7 @@
       <c r="K541" s="13"/>
       <c r="L541" s="2"/>
     </row>
-    <row r="542" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="3" t="s">
         <v>1</v>
       </c>
@@ -38722,7 +38722,7 @@
       <c r="K542" s="13"/>
       <c r="L542" s="2"/>
     </row>
-    <row r="543" spans="1:12" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="3" t="s">
         <v>1</v>
       </c>
@@ -38754,7 +38754,7 @@
       <c r="K543" s="13"/>
       <c r="L543" s="2"/>
     </row>
-    <row r="544" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="3" t="s">
         <v>1</v>
       </c>
@@ -38786,7 +38786,7 @@
       <c r="K544" s="13"/>
       <c r="L544" s="2"/>
     </row>
-    <row r="545" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="3" t="s">
         <v>1</v>
       </c>
@@ -38818,7 +38818,7 @@
       <c r="K545" s="13"/>
       <c r="L545" s="2"/>
     </row>
-    <row r="546" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="3" t="s">
         <v>1</v>
       </c>
@@ -38850,7 +38850,7 @@
       <c r="K546" s="13"/>
       <c r="L546" s="2"/>
     </row>
-    <row r="547" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="3" t="s">
         <v>1</v>
       </c>
@@ -38882,7 +38882,7 @@
       <c r="K547" s="13"/>
       <c r="L547" s="2"/>
     </row>
-    <row r="548" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="3" t="s">
         <v>1</v>
       </c>
@@ -38914,7 +38914,7 @@
       <c r="K548" s="13"/>
       <c r="L548" s="2"/>
     </row>
-    <row r="549" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="3" t="s">
         <v>1</v>
       </c>
@@ -38946,7 +38946,7 @@
       <c r="K549" s="13"/>
       <c r="L549" s="2"/>
     </row>
-    <row r="550" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="3" t="s">
         <v>1</v>
       </c>
@@ -38978,7 +38978,7 @@
       <c r="K550" s="13"/>
       <c r="L550" s="2"/>
     </row>
-    <row r="551" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
         <v>1</v>
       </c>
@@ -39010,7 +39010,7 @@
       <c r="K551" s="13"/>
       <c r="L551" s="2"/>
     </row>
-    <row r="552" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="3" t="s">
         <v>1</v>
       </c>
@@ -39042,7 +39042,7 @@
       <c r="K552" s="13"/>
       <c r="L552" s="2"/>
     </row>
-    <row r="553" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="3" t="s">
         <v>1</v>
       </c>
@@ -39074,7 +39074,7 @@
       <c r="K553" s="13"/>
       <c r="L553" s="2"/>
     </row>
-    <row r="554" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="3" t="s">
         <v>1</v>
       </c>
@@ -39106,7 +39106,7 @@
       <c r="K554" s="13"/>
       <c r="L554" s="2"/>
     </row>
-    <row r="555" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="3" t="s">
         <v>1</v>
       </c>
@@ -39138,7 +39138,7 @@
       <c r="K555" s="13"/>
       <c r="L555" s="2"/>
     </row>
-    <row r="556" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="3" t="s">
         <v>1</v>
       </c>
@@ -39170,7 +39170,7 @@
       <c r="K556" s="13"/>
       <c r="L556" s="2"/>
     </row>
-    <row r="557" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="3" t="s">
         <v>1</v>
       </c>
@@ -39202,7 +39202,7 @@
       <c r="K557" s="13"/>
       <c r="L557" s="2"/>
     </row>
-    <row r="558" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="3" t="s">
         <v>1</v>
       </c>
@@ -39234,7 +39234,7 @@
       <c r="K558" s="13"/>
       <c r="L558" s="2"/>
     </row>
-    <row r="559" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
         <v>1</v>
       </c>
@@ -39266,7 +39266,7 @@
       <c r="K559" s="13"/>
       <c r="L559" s="2"/>
     </row>
-    <row r="560" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="3" t="s">
         <v>1</v>
       </c>
@@ -39298,7 +39298,7 @@
       <c r="K560" s="13"/>
       <c r="L560" s="2"/>
     </row>
-    <row r="561" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="3" t="s">
         <v>1</v>
       </c>
@@ -39330,7 +39330,7 @@
       <c r="K561" s="13"/>
       <c r="L561" s="2"/>
     </row>
-    <row r="562" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="3" t="s">
         <v>1</v>
       </c>
@@ -39362,7 +39362,7 @@
       <c r="K562" s="13"/>
       <c r="L562" s="2"/>
     </row>
-    <row r="563" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="3" t="s">
         <v>1</v>
       </c>
@@ -39394,7 +39394,7 @@
       <c r="K563" s="13"/>
       <c r="L563" s="2"/>
     </row>
-    <row r="564" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="14" t="s">
         <v>1</v>
       </c>
@@ -39432,7 +39432,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="565" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="3" t="s">
         <v>1</v>
       </c>
@@ -39464,7 +39464,7 @@
       <c r="K565" s="13"/>
       <c r="L565" s="2"/>
     </row>
-    <row r="566" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="3" t="s">
         <v>1</v>
       </c>
@@ -39496,7 +39496,7 @@
       <c r="K566" s="13"/>
       <c r="L566" s="2"/>
     </row>
-    <row r="567" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="3" t="s">
         <v>1</v>
       </c>
@@ -39528,7 +39528,7 @@
       <c r="K567" s="13"/>
       <c r="L567" s="2"/>
     </row>
-    <row r="568" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="3" t="s">
         <v>1</v>
       </c>
@@ -39560,7 +39560,7 @@
       <c r="K568" s="13"/>
       <c r="L568" s="2"/>
     </row>
-    <row r="569" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="3" t="s">
         <v>1</v>
       </c>
@@ -39592,7 +39592,7 @@
       <c r="K569" s="13"/>
       <c r="L569" s="2"/>
     </row>
-    <row r="570" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="3" t="s">
         <v>1</v>
       </c>
@@ -39624,7 +39624,7 @@
       <c r="K570" s="13"/>
       <c r="L570" s="2"/>
     </row>
-    <row r="571" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="3" t="s">
         <v>1</v>
       </c>
@@ -39656,7 +39656,7 @@
       <c r="K571" s="13"/>
       <c r="L571" s="2"/>
     </row>
-    <row r="572" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="3" t="s">
         <v>1</v>
       </c>
@@ -39688,7 +39688,7 @@
       <c r="K572" s="13"/>
       <c r="L572" s="2"/>
     </row>
-    <row r="573" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="3" t="s">
         <v>1</v>
       </c>
@@ -39720,7 +39720,7 @@
       <c r="K573" s="13"/>
       <c r="L573" s="2"/>
     </row>
-    <row r="574" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="3" t="s">
         <v>1</v>
       </c>
@@ -39752,7 +39752,7 @@
       <c r="K574" s="13"/>
       <c r="L574" s="2"/>
     </row>
-    <row r="575" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="3" t="s">
         <v>1</v>
       </c>
@@ -39784,7 +39784,7 @@
       <c r="K575" s="13"/>
       <c r="L575" s="2"/>
     </row>
-    <row r="576" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="14" t="s">
         <v>1</v>
       </c>
@@ -39822,7 +39822,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="577" spans="1:12" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="14" t="s">
         <v>1</v>
       </c>
@@ -39861,14 +39861,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L577" xr:uid="{01C662C1-44E7-4D45-92FE-121B8423D47A}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="BLOCK DIVISION ARRANGEMENT"/>
-        <filter val="EMERGENCY STOP SYSTEM, BLOCK DIAGRAM"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L577" xr:uid="{01C662C1-44E7-4D45-92FE-121B8423D47A}"/>
   <conditionalFormatting sqref="A2:C581 A582:A1000">
     <cfRule type="expression" dxfId="17" priority="115" stopIfTrue="1">
       <formula>$I2="Revisar"</formula>
